--- a/ReactNativeSDK数据传递规范v0.1.xlsx
+++ b/ReactNativeSDK数据传递规范v0.1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realank/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realank/Documents/GitHub/iHealthLibrary_ReactNative/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明文档" sheetId="1" r:id="rId1"/>
     <sheet name="BTLE Uni" sheetId="8" r:id="rId2"/>
-    <sheet name="PO" sheetId="2" r:id="rId3"/>
-    <sheet name="BP" sheetId="3" r:id="rId4"/>
+    <sheet name="BP" sheetId="3" r:id="rId3"/>
+    <sheet name="PO" sheetId="2" r:id="rId4"/>
     <sheet name="BG" sheetId="4" r:id="rId5"/>
     <sheet name="AM" sheetId="5" r:id="rId6"/>
     <sheet name="HS4S" sheetId="6" r:id="rId7"/>
@@ -1436,36 +1436,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1485,12 +1455,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1506,8 +1470,50 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,14 +1524,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2716,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2733,157 +2733,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39">
+      <c r="A7" s="29">
         <v>0.1</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2910,22 +2910,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="29" style="44" customWidth="1"/>
-    <col min="3" max="3" width="61" style="44" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="73.6640625" style="44" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="1" width="25.1640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="29" style="32" customWidth="1"/>
+    <col min="3" max="3" width="61" style="32" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="73.6640625" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="53" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:256" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -2943,257 +2943,257 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="46"/>
-      <c r="CC2" s="46"/>
-      <c r="CD2" s="46"/>
-      <c r="CE2" s="46"/>
-      <c r="CF2" s="46"/>
-      <c r="CG2" s="46"/>
-      <c r="CH2" s="46"/>
-      <c r="CI2" s="46"/>
-      <c r="CJ2" s="46"/>
-      <c r="CK2" s="46"/>
-      <c r="CL2" s="46"/>
-      <c r="CM2" s="46"/>
-      <c r="CN2" s="46"/>
-      <c r="CO2" s="46"/>
-      <c r="CP2" s="46"/>
-      <c r="CQ2" s="46"/>
-      <c r="CR2" s="46"/>
-      <c r="CS2" s="46"/>
-      <c r="CT2" s="46"/>
-      <c r="CU2" s="46"/>
-      <c r="CV2" s="46"/>
-      <c r="CW2" s="46"/>
-      <c r="CX2" s="46"/>
-      <c r="CY2" s="46"/>
-      <c r="CZ2" s="46"/>
-      <c r="DA2" s="46"/>
-      <c r="DB2" s="46"/>
-      <c r="DC2" s="46"/>
-      <c r="DD2" s="46"/>
-      <c r="DE2" s="46"/>
-      <c r="DF2" s="46"/>
-      <c r="DG2" s="46"/>
-      <c r="DH2" s="46"/>
-      <c r="DI2" s="46"/>
-      <c r="DJ2" s="46"/>
-      <c r="DK2" s="46"/>
-      <c r="DL2" s="46"/>
-      <c r="DM2" s="46"/>
-      <c r="DN2" s="46"/>
-      <c r="DO2" s="46"/>
-      <c r="DP2" s="46"/>
-      <c r="DQ2" s="46"/>
-      <c r="DR2" s="46"/>
-      <c r="DS2" s="46"/>
-      <c r="DT2" s="46"/>
-      <c r="DU2" s="46"/>
-      <c r="DV2" s="46"/>
-      <c r="DW2" s="46"/>
-      <c r="DX2" s="46"/>
-      <c r="DY2" s="46"/>
-      <c r="DZ2" s="46"/>
-      <c r="EA2" s="46"/>
-      <c r="EB2" s="46"/>
-      <c r="EC2" s="46"/>
-      <c r="ED2" s="46"/>
-      <c r="EE2" s="46"/>
-      <c r="EF2" s="46"/>
-      <c r="EG2" s="46"/>
-      <c r="EH2" s="46"/>
-      <c r="EI2" s="46"/>
-      <c r="EJ2" s="46"/>
-      <c r="EK2" s="46"/>
-      <c r="EL2" s="46"/>
-      <c r="EM2" s="46"/>
-      <c r="EN2" s="46"/>
-      <c r="EO2" s="46"/>
-      <c r="EP2" s="46"/>
-      <c r="EQ2" s="46"/>
-      <c r="ER2" s="46"/>
-      <c r="ES2" s="46"/>
-      <c r="ET2" s="46"/>
-      <c r="EU2" s="46"/>
-      <c r="EV2" s="46"/>
-      <c r="EW2" s="46"/>
-      <c r="EX2" s="46"/>
-      <c r="EY2" s="46"/>
-      <c r="EZ2" s="46"/>
-      <c r="FA2" s="46"/>
-      <c r="FB2" s="46"/>
-      <c r="FC2" s="46"/>
-      <c r="FD2" s="46"/>
-      <c r="FE2" s="46"/>
-      <c r="FF2" s="46"/>
-      <c r="FG2" s="46"/>
-      <c r="FH2" s="46"/>
-      <c r="FI2" s="46"/>
-      <c r="FJ2" s="46"/>
-      <c r="FK2" s="46"/>
-      <c r="FL2" s="46"/>
-      <c r="FM2" s="46"/>
-      <c r="FN2" s="46"/>
-      <c r="FO2" s="46"/>
-      <c r="FP2" s="46"/>
-      <c r="FQ2" s="46"/>
-      <c r="FR2" s="46"/>
-      <c r="FS2" s="46"/>
-      <c r="FT2" s="46"/>
-      <c r="FU2" s="46"/>
-      <c r="FV2" s="46"/>
-      <c r="FW2" s="46"/>
-      <c r="FX2" s="46"/>
-      <c r="FY2" s="46"/>
-      <c r="FZ2" s="46"/>
-      <c r="GA2" s="46"/>
-      <c r="GB2" s="46"/>
-      <c r="GC2" s="46"/>
-      <c r="GD2" s="46"/>
-      <c r="GE2" s="46"/>
-      <c r="GF2" s="46"/>
-      <c r="GG2" s="46"/>
-      <c r="GH2" s="46"/>
-      <c r="GI2" s="46"/>
-      <c r="GJ2" s="46"/>
-      <c r="GK2" s="46"/>
-      <c r="GL2" s="46"/>
-      <c r="GM2" s="46"/>
-      <c r="GN2" s="46"/>
-      <c r="GO2" s="46"/>
-      <c r="GP2" s="46"/>
-      <c r="GQ2" s="46"/>
-      <c r="GR2" s="46"/>
-      <c r="GS2" s="46"/>
-      <c r="GT2" s="46"/>
-      <c r="GU2" s="46"/>
-      <c r="GV2" s="46"/>
-      <c r="GW2" s="46"/>
-      <c r="GX2" s="46"/>
-      <c r="GY2" s="46"/>
-      <c r="GZ2" s="46"/>
-      <c r="HA2" s="46"/>
-      <c r="HB2" s="46"/>
-      <c r="HC2" s="46"/>
-      <c r="HD2" s="46"/>
-      <c r="HE2" s="46"/>
-      <c r="HF2" s="46"/>
-      <c r="HG2" s="46"/>
-      <c r="HH2" s="46"/>
-      <c r="HI2" s="46"/>
-      <c r="HJ2" s="46"/>
-      <c r="HK2" s="46"/>
-      <c r="HL2" s="46"/>
-      <c r="HM2" s="46"/>
-      <c r="HN2" s="46"/>
-      <c r="HO2" s="46"/>
-      <c r="HP2" s="46"/>
-      <c r="HQ2" s="46"/>
-      <c r="HR2" s="46"/>
-      <c r="HS2" s="46"/>
-      <c r="HT2" s="46"/>
-      <c r="HU2" s="46"/>
-      <c r="HV2" s="46"/>
-      <c r="HW2" s="46"/>
-      <c r="HX2" s="46"/>
-      <c r="HY2" s="46"/>
-      <c r="HZ2" s="46"/>
-      <c r="IA2" s="46"/>
-      <c r="IB2" s="46"/>
-      <c r="IC2" s="46"/>
-      <c r="ID2" s="46"/>
-      <c r="IE2" s="46"/>
-      <c r="IF2" s="46"/>
-      <c r="IG2" s="46"/>
-      <c r="IH2" s="46"/>
-      <c r="II2" s="46"/>
-      <c r="IJ2" s="46"/>
-      <c r="IK2" s="46"/>
-      <c r="IL2" s="46"/>
-      <c r="IM2" s="46"/>
-      <c r="IN2" s="46"/>
-      <c r="IO2" s="46"/>
-      <c r="IP2" s="46"/>
-      <c r="IQ2" s="46"/>
-      <c r="IR2" s="46"/>
-      <c r="IS2" s="46"/>
-      <c r="IT2" s="46"/>
-      <c r="IU2" s="46"/>
-      <c r="IV2" s="46"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="34"/>
+      <c r="CU2" s="34"/>
+      <c r="CV2" s="34"/>
+      <c r="CW2" s="34"/>
+      <c r="CX2" s="34"/>
+      <c r="CY2" s="34"/>
+      <c r="CZ2" s="34"/>
+      <c r="DA2" s="34"/>
+      <c r="DB2" s="34"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="34"/>
+      <c r="DE2" s="34"/>
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="34"/>
+      <c r="DH2" s="34"/>
+      <c r="DI2" s="34"/>
+      <c r="DJ2" s="34"/>
+      <c r="DK2" s="34"/>
+      <c r="DL2" s="34"/>
+      <c r="DM2" s="34"/>
+      <c r="DN2" s="34"/>
+      <c r="DO2" s="34"/>
+      <c r="DP2" s="34"/>
+      <c r="DQ2" s="34"/>
+      <c r="DR2" s="34"/>
+      <c r="DS2" s="34"/>
+      <c r="DT2" s="34"/>
+      <c r="DU2" s="34"/>
+      <c r="DV2" s="34"/>
+      <c r="DW2" s="34"/>
+      <c r="DX2" s="34"/>
+      <c r="DY2" s="34"/>
+      <c r="DZ2" s="34"/>
+      <c r="EA2" s="34"/>
+      <c r="EB2" s="34"/>
+      <c r="EC2" s="34"/>
+      <c r="ED2" s="34"/>
+      <c r="EE2" s="34"/>
+      <c r="EF2" s="34"/>
+      <c r="EG2" s="34"/>
+      <c r="EH2" s="34"/>
+      <c r="EI2" s="34"/>
+      <c r="EJ2" s="34"/>
+      <c r="EK2" s="34"/>
+      <c r="EL2" s="34"/>
+      <c r="EM2" s="34"/>
+      <c r="EN2" s="34"/>
+      <c r="EO2" s="34"/>
+      <c r="EP2" s="34"/>
+      <c r="EQ2" s="34"/>
+      <c r="ER2" s="34"/>
+      <c r="ES2" s="34"/>
+      <c r="ET2" s="34"/>
+      <c r="EU2" s="34"/>
+      <c r="EV2" s="34"/>
+      <c r="EW2" s="34"/>
+      <c r="EX2" s="34"/>
+      <c r="EY2" s="34"/>
+      <c r="EZ2" s="34"/>
+      <c r="FA2" s="34"/>
+      <c r="FB2" s="34"/>
+      <c r="FC2" s="34"/>
+      <c r="FD2" s="34"/>
+      <c r="FE2" s="34"/>
+      <c r="FF2" s="34"/>
+      <c r="FG2" s="34"/>
+      <c r="FH2" s="34"/>
+      <c r="FI2" s="34"/>
+      <c r="FJ2" s="34"/>
+      <c r="FK2" s="34"/>
+      <c r="FL2" s="34"/>
+      <c r="FM2" s="34"/>
+      <c r="FN2" s="34"/>
+      <c r="FO2" s="34"/>
+      <c r="FP2" s="34"/>
+      <c r="FQ2" s="34"/>
+      <c r="FR2" s="34"/>
+      <c r="FS2" s="34"/>
+      <c r="FT2" s="34"/>
+      <c r="FU2" s="34"/>
+      <c r="FV2" s="34"/>
+      <c r="FW2" s="34"/>
+      <c r="FX2" s="34"/>
+      <c r="FY2" s="34"/>
+      <c r="FZ2" s="34"/>
+      <c r="GA2" s="34"/>
+      <c r="GB2" s="34"/>
+      <c r="GC2" s="34"/>
+      <c r="GD2" s="34"/>
+      <c r="GE2" s="34"/>
+      <c r="GF2" s="34"/>
+      <c r="GG2" s="34"/>
+      <c r="GH2" s="34"/>
+      <c r="GI2" s="34"/>
+      <c r="GJ2" s="34"/>
+      <c r="GK2" s="34"/>
+      <c r="GL2" s="34"/>
+      <c r="GM2" s="34"/>
+      <c r="GN2" s="34"/>
+      <c r="GO2" s="34"/>
+      <c r="GP2" s="34"/>
+      <c r="GQ2" s="34"/>
+      <c r="GR2" s="34"/>
+      <c r="GS2" s="34"/>
+      <c r="GT2" s="34"/>
+      <c r="GU2" s="34"/>
+      <c r="GV2" s="34"/>
+      <c r="GW2" s="34"/>
+      <c r="GX2" s="34"/>
+      <c r="GY2" s="34"/>
+      <c r="GZ2" s="34"/>
+      <c r="HA2" s="34"/>
+      <c r="HB2" s="34"/>
+      <c r="HC2" s="34"/>
+      <c r="HD2" s="34"/>
+      <c r="HE2" s="34"/>
+      <c r="HF2" s="34"/>
+      <c r="HG2" s="34"/>
+      <c r="HH2" s="34"/>
+      <c r="HI2" s="34"/>
+      <c r="HJ2" s="34"/>
+      <c r="HK2" s="34"/>
+      <c r="HL2" s="34"/>
+      <c r="HM2" s="34"/>
+      <c r="HN2" s="34"/>
+      <c r="HO2" s="34"/>
+      <c r="HP2" s="34"/>
+      <c r="HQ2" s="34"/>
+      <c r="HR2" s="34"/>
+      <c r="HS2" s="34"/>
+      <c r="HT2" s="34"/>
+      <c r="HU2" s="34"/>
+      <c r="HV2" s="34"/>
+      <c r="HW2" s="34"/>
+      <c r="HX2" s="34"/>
+      <c r="HY2" s="34"/>
+      <c r="HZ2" s="34"/>
+      <c r="IA2" s="34"/>
+      <c r="IB2" s="34"/>
+      <c r="IC2" s="34"/>
+      <c r="ID2" s="34"/>
+      <c r="IE2" s="34"/>
+      <c r="IF2" s="34"/>
+      <c r="IG2" s="34"/>
+      <c r="IH2" s="34"/>
+      <c r="II2" s="34"/>
+      <c r="IJ2" s="34"/>
+      <c r="IK2" s="34"/>
+      <c r="IL2" s="34"/>
+      <c r="IM2" s="34"/>
+      <c r="IN2" s="34"/>
+      <c r="IO2" s="34"/>
+      <c r="IP2" s="34"/>
+      <c r="IQ2" s="34"/>
+      <c r="IR2" s="34"/>
+      <c r="IS2" s="34"/>
+      <c r="IT2" s="34"/>
+      <c r="IU2" s="34"/>
+      <c r="IV2" s="34"/>
     </row>
     <row r="3" spans="1:256" ht="121" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -3211,257 +3211,257 @@
       <c r="E3" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="46"/>
-      <c r="BL3" s="46"/>
-      <c r="BM3" s="46"/>
-      <c r="BN3" s="46"/>
-      <c r="BO3" s="46"/>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="46"/>
-      <c r="BR3" s="46"/>
-      <c r="BS3" s="46"/>
-      <c r="BT3" s="46"/>
-      <c r="BU3" s="46"/>
-      <c r="BV3" s="46"/>
-      <c r="BW3" s="46"/>
-      <c r="BX3" s="46"/>
-      <c r="BY3" s="46"/>
-      <c r="BZ3" s="46"/>
-      <c r="CA3" s="46"/>
-      <c r="CB3" s="46"/>
-      <c r="CC3" s="46"/>
-      <c r="CD3" s="46"/>
-      <c r="CE3" s="46"/>
-      <c r="CF3" s="46"/>
-      <c r="CG3" s="46"/>
-      <c r="CH3" s="46"/>
-      <c r="CI3" s="46"/>
-      <c r="CJ3" s="46"/>
-      <c r="CK3" s="46"/>
-      <c r="CL3" s="46"/>
-      <c r="CM3" s="46"/>
-      <c r="CN3" s="46"/>
-      <c r="CO3" s="46"/>
-      <c r="CP3" s="46"/>
-      <c r="CQ3" s="46"/>
-      <c r="CR3" s="46"/>
-      <c r="CS3" s="46"/>
-      <c r="CT3" s="46"/>
-      <c r="CU3" s="46"/>
-      <c r="CV3" s="46"/>
-      <c r="CW3" s="46"/>
-      <c r="CX3" s="46"/>
-      <c r="CY3" s="46"/>
-      <c r="CZ3" s="46"/>
-      <c r="DA3" s="46"/>
-      <c r="DB3" s="46"/>
-      <c r="DC3" s="46"/>
-      <c r="DD3" s="46"/>
-      <c r="DE3" s="46"/>
-      <c r="DF3" s="46"/>
-      <c r="DG3" s="46"/>
-      <c r="DH3" s="46"/>
-      <c r="DI3" s="46"/>
-      <c r="DJ3" s="46"/>
-      <c r="DK3" s="46"/>
-      <c r="DL3" s="46"/>
-      <c r="DM3" s="46"/>
-      <c r="DN3" s="46"/>
-      <c r="DO3" s="46"/>
-      <c r="DP3" s="46"/>
-      <c r="DQ3" s="46"/>
-      <c r="DR3" s="46"/>
-      <c r="DS3" s="46"/>
-      <c r="DT3" s="46"/>
-      <c r="DU3" s="46"/>
-      <c r="DV3" s="46"/>
-      <c r="DW3" s="46"/>
-      <c r="DX3" s="46"/>
-      <c r="DY3" s="46"/>
-      <c r="DZ3" s="46"/>
-      <c r="EA3" s="46"/>
-      <c r="EB3" s="46"/>
-      <c r="EC3" s="46"/>
-      <c r="ED3" s="46"/>
-      <c r="EE3" s="46"/>
-      <c r="EF3" s="46"/>
-      <c r="EG3" s="46"/>
-      <c r="EH3" s="46"/>
-      <c r="EI3" s="46"/>
-      <c r="EJ3" s="46"/>
-      <c r="EK3" s="46"/>
-      <c r="EL3" s="46"/>
-      <c r="EM3" s="46"/>
-      <c r="EN3" s="46"/>
-      <c r="EO3" s="46"/>
-      <c r="EP3" s="46"/>
-      <c r="EQ3" s="46"/>
-      <c r="ER3" s="46"/>
-      <c r="ES3" s="46"/>
-      <c r="ET3" s="46"/>
-      <c r="EU3" s="46"/>
-      <c r="EV3" s="46"/>
-      <c r="EW3" s="46"/>
-      <c r="EX3" s="46"/>
-      <c r="EY3" s="46"/>
-      <c r="EZ3" s="46"/>
-      <c r="FA3" s="46"/>
-      <c r="FB3" s="46"/>
-      <c r="FC3" s="46"/>
-      <c r="FD3" s="46"/>
-      <c r="FE3" s="46"/>
-      <c r="FF3" s="46"/>
-      <c r="FG3" s="46"/>
-      <c r="FH3" s="46"/>
-      <c r="FI3" s="46"/>
-      <c r="FJ3" s="46"/>
-      <c r="FK3" s="46"/>
-      <c r="FL3" s="46"/>
-      <c r="FM3" s="46"/>
-      <c r="FN3" s="46"/>
-      <c r="FO3" s="46"/>
-      <c r="FP3" s="46"/>
-      <c r="FQ3" s="46"/>
-      <c r="FR3" s="46"/>
-      <c r="FS3" s="46"/>
-      <c r="FT3" s="46"/>
-      <c r="FU3" s="46"/>
-      <c r="FV3" s="46"/>
-      <c r="FW3" s="46"/>
-      <c r="FX3" s="46"/>
-      <c r="FY3" s="46"/>
-      <c r="FZ3" s="46"/>
-      <c r="GA3" s="46"/>
-      <c r="GB3" s="46"/>
-      <c r="GC3" s="46"/>
-      <c r="GD3" s="46"/>
-      <c r="GE3" s="46"/>
-      <c r="GF3" s="46"/>
-      <c r="GG3" s="46"/>
-      <c r="GH3" s="46"/>
-      <c r="GI3" s="46"/>
-      <c r="GJ3" s="46"/>
-      <c r="GK3" s="46"/>
-      <c r="GL3" s="46"/>
-      <c r="GM3" s="46"/>
-      <c r="GN3" s="46"/>
-      <c r="GO3" s="46"/>
-      <c r="GP3" s="46"/>
-      <c r="GQ3" s="46"/>
-      <c r="GR3" s="46"/>
-      <c r="GS3" s="46"/>
-      <c r="GT3" s="46"/>
-      <c r="GU3" s="46"/>
-      <c r="GV3" s="46"/>
-      <c r="GW3" s="46"/>
-      <c r="GX3" s="46"/>
-      <c r="GY3" s="46"/>
-      <c r="GZ3" s="46"/>
-      <c r="HA3" s="46"/>
-      <c r="HB3" s="46"/>
-      <c r="HC3" s="46"/>
-      <c r="HD3" s="46"/>
-      <c r="HE3" s="46"/>
-      <c r="HF3" s="46"/>
-      <c r="HG3" s="46"/>
-      <c r="HH3" s="46"/>
-      <c r="HI3" s="46"/>
-      <c r="HJ3" s="46"/>
-      <c r="HK3" s="46"/>
-      <c r="HL3" s="46"/>
-      <c r="HM3" s="46"/>
-      <c r="HN3" s="46"/>
-      <c r="HO3" s="46"/>
-      <c r="HP3" s="46"/>
-      <c r="HQ3" s="46"/>
-      <c r="HR3" s="46"/>
-      <c r="HS3" s="46"/>
-      <c r="HT3" s="46"/>
-      <c r="HU3" s="46"/>
-      <c r="HV3" s="46"/>
-      <c r="HW3" s="46"/>
-      <c r="HX3" s="46"/>
-      <c r="HY3" s="46"/>
-      <c r="HZ3" s="46"/>
-      <c r="IA3" s="46"/>
-      <c r="IB3" s="46"/>
-      <c r="IC3" s="46"/>
-      <c r="ID3" s="46"/>
-      <c r="IE3" s="46"/>
-      <c r="IF3" s="46"/>
-      <c r="IG3" s="46"/>
-      <c r="IH3" s="46"/>
-      <c r="II3" s="46"/>
-      <c r="IJ3" s="46"/>
-      <c r="IK3" s="46"/>
-      <c r="IL3" s="46"/>
-      <c r="IM3" s="46"/>
-      <c r="IN3" s="46"/>
-      <c r="IO3" s="46"/>
-      <c r="IP3" s="46"/>
-      <c r="IQ3" s="46"/>
-      <c r="IR3" s="46"/>
-      <c r="IS3" s="46"/>
-      <c r="IT3" s="46"/>
-      <c r="IU3" s="46"/>
-      <c r="IV3" s="46"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="34"/>
+      <c r="BO3" s="34"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="34"/>
+      <c r="CC3" s="34"/>
+      <c r="CD3" s="34"/>
+      <c r="CE3" s="34"/>
+      <c r="CF3" s="34"/>
+      <c r="CG3" s="34"/>
+      <c r="CH3" s="34"/>
+      <c r="CI3" s="34"/>
+      <c r="CJ3" s="34"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="34"/>
+      <c r="CM3" s="34"/>
+      <c r="CN3" s="34"/>
+      <c r="CO3" s="34"/>
+      <c r="CP3" s="34"/>
+      <c r="CQ3" s="34"/>
+      <c r="CR3" s="34"/>
+      <c r="CS3" s="34"/>
+      <c r="CT3" s="34"/>
+      <c r="CU3" s="34"/>
+      <c r="CV3" s="34"/>
+      <c r="CW3" s="34"/>
+      <c r="CX3" s="34"/>
+      <c r="CY3" s="34"/>
+      <c r="CZ3" s="34"/>
+      <c r="DA3" s="34"/>
+      <c r="DB3" s="34"/>
+      <c r="DC3" s="34"/>
+      <c r="DD3" s="34"/>
+      <c r="DE3" s="34"/>
+      <c r="DF3" s="34"/>
+      <c r="DG3" s="34"/>
+      <c r="DH3" s="34"/>
+      <c r="DI3" s="34"/>
+      <c r="DJ3" s="34"/>
+      <c r="DK3" s="34"/>
+      <c r="DL3" s="34"/>
+      <c r="DM3" s="34"/>
+      <c r="DN3" s="34"/>
+      <c r="DO3" s="34"/>
+      <c r="DP3" s="34"/>
+      <c r="DQ3" s="34"/>
+      <c r="DR3" s="34"/>
+      <c r="DS3" s="34"/>
+      <c r="DT3" s="34"/>
+      <c r="DU3" s="34"/>
+      <c r="DV3" s="34"/>
+      <c r="DW3" s="34"/>
+      <c r="DX3" s="34"/>
+      <c r="DY3" s="34"/>
+      <c r="DZ3" s="34"/>
+      <c r="EA3" s="34"/>
+      <c r="EB3" s="34"/>
+      <c r="EC3" s="34"/>
+      <c r="ED3" s="34"/>
+      <c r="EE3" s="34"/>
+      <c r="EF3" s="34"/>
+      <c r="EG3" s="34"/>
+      <c r="EH3" s="34"/>
+      <c r="EI3" s="34"/>
+      <c r="EJ3" s="34"/>
+      <c r="EK3" s="34"/>
+      <c r="EL3" s="34"/>
+      <c r="EM3" s="34"/>
+      <c r="EN3" s="34"/>
+      <c r="EO3" s="34"/>
+      <c r="EP3" s="34"/>
+      <c r="EQ3" s="34"/>
+      <c r="ER3" s="34"/>
+      <c r="ES3" s="34"/>
+      <c r="ET3" s="34"/>
+      <c r="EU3" s="34"/>
+      <c r="EV3" s="34"/>
+      <c r="EW3" s="34"/>
+      <c r="EX3" s="34"/>
+      <c r="EY3" s="34"/>
+      <c r="EZ3" s="34"/>
+      <c r="FA3" s="34"/>
+      <c r="FB3" s="34"/>
+      <c r="FC3" s="34"/>
+      <c r="FD3" s="34"/>
+      <c r="FE3" s="34"/>
+      <c r="FF3" s="34"/>
+      <c r="FG3" s="34"/>
+      <c r="FH3" s="34"/>
+      <c r="FI3" s="34"/>
+      <c r="FJ3" s="34"/>
+      <c r="FK3" s="34"/>
+      <c r="FL3" s="34"/>
+      <c r="FM3" s="34"/>
+      <c r="FN3" s="34"/>
+      <c r="FO3" s="34"/>
+      <c r="FP3" s="34"/>
+      <c r="FQ3" s="34"/>
+      <c r="FR3" s="34"/>
+      <c r="FS3" s="34"/>
+      <c r="FT3" s="34"/>
+      <c r="FU3" s="34"/>
+      <c r="FV3" s="34"/>
+      <c r="FW3" s="34"/>
+      <c r="FX3" s="34"/>
+      <c r="FY3" s="34"/>
+      <c r="FZ3" s="34"/>
+      <c r="GA3" s="34"/>
+      <c r="GB3" s="34"/>
+      <c r="GC3" s="34"/>
+      <c r="GD3" s="34"/>
+      <c r="GE3" s="34"/>
+      <c r="GF3" s="34"/>
+      <c r="GG3" s="34"/>
+      <c r="GH3" s="34"/>
+      <c r="GI3" s="34"/>
+      <c r="GJ3" s="34"/>
+      <c r="GK3" s="34"/>
+      <c r="GL3" s="34"/>
+      <c r="GM3" s="34"/>
+      <c r="GN3" s="34"/>
+      <c r="GO3" s="34"/>
+      <c r="GP3" s="34"/>
+      <c r="GQ3" s="34"/>
+      <c r="GR3" s="34"/>
+      <c r="GS3" s="34"/>
+      <c r="GT3" s="34"/>
+      <c r="GU3" s="34"/>
+      <c r="GV3" s="34"/>
+      <c r="GW3" s="34"/>
+      <c r="GX3" s="34"/>
+      <c r="GY3" s="34"/>
+      <c r="GZ3" s="34"/>
+      <c r="HA3" s="34"/>
+      <c r="HB3" s="34"/>
+      <c r="HC3" s="34"/>
+      <c r="HD3" s="34"/>
+      <c r="HE3" s="34"/>
+      <c r="HF3" s="34"/>
+      <c r="HG3" s="34"/>
+      <c r="HH3" s="34"/>
+      <c r="HI3" s="34"/>
+      <c r="HJ3" s="34"/>
+      <c r="HK3" s="34"/>
+      <c r="HL3" s="34"/>
+      <c r="HM3" s="34"/>
+      <c r="HN3" s="34"/>
+      <c r="HO3" s="34"/>
+      <c r="HP3" s="34"/>
+      <c r="HQ3" s="34"/>
+      <c r="HR3" s="34"/>
+      <c r="HS3" s="34"/>
+      <c r="HT3" s="34"/>
+      <c r="HU3" s="34"/>
+      <c r="HV3" s="34"/>
+      <c r="HW3" s="34"/>
+      <c r="HX3" s="34"/>
+      <c r="HY3" s="34"/>
+      <c r="HZ3" s="34"/>
+      <c r="IA3" s="34"/>
+      <c r="IB3" s="34"/>
+      <c r="IC3" s="34"/>
+      <c r="ID3" s="34"/>
+      <c r="IE3" s="34"/>
+      <c r="IF3" s="34"/>
+      <c r="IG3" s="34"/>
+      <c r="IH3" s="34"/>
+      <c r="II3" s="34"/>
+      <c r="IJ3" s="34"/>
+      <c r="IK3" s="34"/>
+      <c r="IL3" s="34"/>
+      <c r="IM3" s="34"/>
+      <c r="IN3" s="34"/>
+      <c r="IO3" s="34"/>
+      <c r="IP3" s="34"/>
+      <c r="IQ3" s="34"/>
+      <c r="IR3" s="34"/>
+      <c r="IS3" s="34"/>
+      <c r="IT3" s="34"/>
+      <c r="IU3" s="34"/>
+      <c r="IV3" s="34"/>
     </row>
     <row r="4" spans="1:256" ht="68" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
@@ -3477,257 +3477,257 @@
       <c r="E4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="46"/>
-      <c r="CL4" s="46"/>
-      <c r="CM4" s="46"/>
-      <c r="CN4" s="46"/>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
-      <c r="CQ4" s="46"/>
-      <c r="CR4" s="46"/>
-      <c r="CS4" s="46"/>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="46"/>
-      <c r="CY4" s="46"/>
-      <c r="CZ4" s="46"/>
-      <c r="DA4" s="46"/>
-      <c r="DB4" s="46"/>
-      <c r="DC4" s="46"/>
-      <c r="DD4" s="46"/>
-      <c r="DE4" s="46"/>
-      <c r="DF4" s="46"/>
-      <c r="DG4" s="46"/>
-      <c r="DH4" s="46"/>
-      <c r="DI4" s="46"/>
-      <c r="DJ4" s="46"/>
-      <c r="DK4" s="46"/>
-      <c r="DL4" s="46"/>
-      <c r="DM4" s="46"/>
-      <c r="DN4" s="46"/>
-      <c r="DO4" s="46"/>
-      <c r="DP4" s="46"/>
-      <c r="DQ4" s="46"/>
-      <c r="DR4" s="46"/>
-      <c r="DS4" s="46"/>
-      <c r="DT4" s="46"/>
-      <c r="DU4" s="46"/>
-      <c r="DV4" s="46"/>
-      <c r="DW4" s="46"/>
-      <c r="DX4" s="46"/>
-      <c r="DY4" s="46"/>
-      <c r="DZ4" s="46"/>
-      <c r="EA4" s="46"/>
-      <c r="EB4" s="46"/>
-      <c r="EC4" s="46"/>
-      <c r="ED4" s="46"/>
-      <c r="EE4" s="46"/>
-      <c r="EF4" s="46"/>
-      <c r="EG4" s="46"/>
-      <c r="EH4" s="46"/>
-      <c r="EI4" s="46"/>
-      <c r="EJ4" s="46"/>
-      <c r="EK4" s="46"/>
-      <c r="EL4" s="46"/>
-      <c r="EM4" s="46"/>
-      <c r="EN4" s="46"/>
-      <c r="EO4" s="46"/>
-      <c r="EP4" s="46"/>
-      <c r="EQ4" s="46"/>
-      <c r="ER4" s="46"/>
-      <c r="ES4" s="46"/>
-      <c r="ET4" s="46"/>
-      <c r="EU4" s="46"/>
-      <c r="EV4" s="46"/>
-      <c r="EW4" s="46"/>
-      <c r="EX4" s="46"/>
-      <c r="EY4" s="46"/>
-      <c r="EZ4" s="46"/>
-      <c r="FA4" s="46"/>
-      <c r="FB4" s="46"/>
-      <c r="FC4" s="46"/>
-      <c r="FD4" s="46"/>
-      <c r="FE4" s="46"/>
-      <c r="FF4" s="46"/>
-      <c r="FG4" s="46"/>
-      <c r="FH4" s="46"/>
-      <c r="FI4" s="46"/>
-      <c r="FJ4" s="46"/>
-      <c r="FK4" s="46"/>
-      <c r="FL4" s="46"/>
-      <c r="FM4" s="46"/>
-      <c r="FN4" s="46"/>
-      <c r="FO4" s="46"/>
-      <c r="FP4" s="46"/>
-      <c r="FQ4" s="46"/>
-      <c r="FR4" s="46"/>
-      <c r="FS4" s="46"/>
-      <c r="FT4" s="46"/>
-      <c r="FU4" s="46"/>
-      <c r="FV4" s="46"/>
-      <c r="FW4" s="46"/>
-      <c r="FX4" s="46"/>
-      <c r="FY4" s="46"/>
-      <c r="FZ4" s="46"/>
-      <c r="GA4" s="46"/>
-      <c r="GB4" s="46"/>
-      <c r="GC4" s="46"/>
-      <c r="GD4" s="46"/>
-      <c r="GE4" s="46"/>
-      <c r="GF4" s="46"/>
-      <c r="GG4" s="46"/>
-      <c r="GH4" s="46"/>
-      <c r="GI4" s="46"/>
-      <c r="GJ4" s="46"/>
-      <c r="GK4" s="46"/>
-      <c r="GL4" s="46"/>
-      <c r="GM4" s="46"/>
-      <c r="GN4" s="46"/>
-      <c r="GO4" s="46"/>
-      <c r="GP4" s="46"/>
-      <c r="GQ4" s="46"/>
-      <c r="GR4" s="46"/>
-      <c r="GS4" s="46"/>
-      <c r="GT4" s="46"/>
-      <c r="GU4" s="46"/>
-      <c r="GV4" s="46"/>
-      <c r="GW4" s="46"/>
-      <c r="GX4" s="46"/>
-      <c r="GY4" s="46"/>
-      <c r="GZ4" s="46"/>
-      <c r="HA4" s="46"/>
-      <c r="HB4" s="46"/>
-      <c r="HC4" s="46"/>
-      <c r="HD4" s="46"/>
-      <c r="HE4" s="46"/>
-      <c r="HF4" s="46"/>
-      <c r="HG4" s="46"/>
-      <c r="HH4" s="46"/>
-      <c r="HI4" s="46"/>
-      <c r="HJ4" s="46"/>
-      <c r="HK4" s="46"/>
-      <c r="HL4" s="46"/>
-      <c r="HM4" s="46"/>
-      <c r="HN4" s="46"/>
-      <c r="HO4" s="46"/>
-      <c r="HP4" s="46"/>
-      <c r="HQ4" s="46"/>
-      <c r="HR4" s="46"/>
-      <c r="HS4" s="46"/>
-      <c r="HT4" s="46"/>
-      <c r="HU4" s="46"/>
-      <c r="HV4" s="46"/>
-      <c r="HW4" s="46"/>
-      <c r="HX4" s="46"/>
-      <c r="HY4" s="46"/>
-      <c r="HZ4" s="46"/>
-      <c r="IA4" s="46"/>
-      <c r="IB4" s="46"/>
-      <c r="IC4" s="46"/>
-      <c r="ID4" s="46"/>
-      <c r="IE4" s="46"/>
-      <c r="IF4" s="46"/>
-      <c r="IG4" s="46"/>
-      <c r="IH4" s="46"/>
-      <c r="II4" s="46"/>
-      <c r="IJ4" s="46"/>
-      <c r="IK4" s="46"/>
-      <c r="IL4" s="46"/>
-      <c r="IM4" s="46"/>
-      <c r="IN4" s="46"/>
-      <c r="IO4" s="46"/>
-      <c r="IP4" s="46"/>
-      <c r="IQ4" s="46"/>
-      <c r="IR4" s="46"/>
-      <c r="IS4" s="46"/>
-      <c r="IT4" s="46"/>
-      <c r="IU4" s="46"/>
-      <c r="IV4" s="46"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="34"/>
+      <c r="CK4" s="34"/>
+      <c r="CL4" s="34"/>
+      <c r="CM4" s="34"/>
+      <c r="CN4" s="34"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="34"/>
+      <c r="CQ4" s="34"/>
+      <c r="CR4" s="34"/>
+      <c r="CS4" s="34"/>
+      <c r="CT4" s="34"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="34"/>
+      <c r="CW4" s="34"/>
+      <c r="CX4" s="34"/>
+      <c r="CY4" s="34"/>
+      <c r="CZ4" s="34"/>
+      <c r="DA4" s="34"/>
+      <c r="DB4" s="34"/>
+      <c r="DC4" s="34"/>
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="34"/>
+      <c r="DF4" s="34"/>
+      <c r="DG4" s="34"/>
+      <c r="DH4" s="34"/>
+      <c r="DI4" s="34"/>
+      <c r="DJ4" s="34"/>
+      <c r="DK4" s="34"/>
+      <c r="DL4" s="34"/>
+      <c r="DM4" s="34"/>
+      <c r="DN4" s="34"/>
+      <c r="DO4" s="34"/>
+      <c r="DP4" s="34"/>
+      <c r="DQ4" s="34"/>
+      <c r="DR4" s="34"/>
+      <c r="DS4" s="34"/>
+      <c r="DT4" s="34"/>
+      <c r="DU4" s="34"/>
+      <c r="DV4" s="34"/>
+      <c r="DW4" s="34"/>
+      <c r="DX4" s="34"/>
+      <c r="DY4" s="34"/>
+      <c r="DZ4" s="34"/>
+      <c r="EA4" s="34"/>
+      <c r="EB4" s="34"/>
+      <c r="EC4" s="34"/>
+      <c r="ED4" s="34"/>
+      <c r="EE4" s="34"/>
+      <c r="EF4" s="34"/>
+      <c r="EG4" s="34"/>
+      <c r="EH4" s="34"/>
+      <c r="EI4" s="34"/>
+      <c r="EJ4" s="34"/>
+      <c r="EK4" s="34"/>
+      <c r="EL4" s="34"/>
+      <c r="EM4" s="34"/>
+      <c r="EN4" s="34"/>
+      <c r="EO4" s="34"/>
+      <c r="EP4" s="34"/>
+      <c r="EQ4" s="34"/>
+      <c r="ER4" s="34"/>
+      <c r="ES4" s="34"/>
+      <c r="ET4" s="34"/>
+      <c r="EU4" s="34"/>
+      <c r="EV4" s="34"/>
+      <c r="EW4" s="34"/>
+      <c r="EX4" s="34"/>
+      <c r="EY4" s="34"/>
+      <c r="EZ4" s="34"/>
+      <c r="FA4" s="34"/>
+      <c r="FB4" s="34"/>
+      <c r="FC4" s="34"/>
+      <c r="FD4" s="34"/>
+      <c r="FE4" s="34"/>
+      <c r="FF4" s="34"/>
+      <c r="FG4" s="34"/>
+      <c r="FH4" s="34"/>
+      <c r="FI4" s="34"/>
+      <c r="FJ4" s="34"/>
+      <c r="FK4" s="34"/>
+      <c r="FL4" s="34"/>
+      <c r="FM4" s="34"/>
+      <c r="FN4" s="34"/>
+      <c r="FO4" s="34"/>
+      <c r="FP4" s="34"/>
+      <c r="FQ4" s="34"/>
+      <c r="FR4" s="34"/>
+      <c r="FS4" s="34"/>
+      <c r="FT4" s="34"/>
+      <c r="FU4" s="34"/>
+      <c r="FV4" s="34"/>
+      <c r="FW4" s="34"/>
+      <c r="FX4" s="34"/>
+      <c r="FY4" s="34"/>
+      <c r="FZ4" s="34"/>
+      <c r="GA4" s="34"/>
+      <c r="GB4" s="34"/>
+      <c r="GC4" s="34"/>
+      <c r="GD4" s="34"/>
+      <c r="GE4" s="34"/>
+      <c r="GF4" s="34"/>
+      <c r="GG4" s="34"/>
+      <c r="GH4" s="34"/>
+      <c r="GI4" s="34"/>
+      <c r="GJ4" s="34"/>
+      <c r="GK4" s="34"/>
+      <c r="GL4" s="34"/>
+      <c r="GM4" s="34"/>
+      <c r="GN4" s="34"/>
+      <c r="GO4" s="34"/>
+      <c r="GP4" s="34"/>
+      <c r="GQ4" s="34"/>
+      <c r="GR4" s="34"/>
+      <c r="GS4" s="34"/>
+      <c r="GT4" s="34"/>
+      <c r="GU4" s="34"/>
+      <c r="GV4" s="34"/>
+      <c r="GW4" s="34"/>
+      <c r="GX4" s="34"/>
+      <c r="GY4" s="34"/>
+      <c r="GZ4" s="34"/>
+      <c r="HA4" s="34"/>
+      <c r="HB4" s="34"/>
+      <c r="HC4" s="34"/>
+      <c r="HD4" s="34"/>
+      <c r="HE4" s="34"/>
+      <c r="HF4" s="34"/>
+      <c r="HG4" s="34"/>
+      <c r="HH4" s="34"/>
+      <c r="HI4" s="34"/>
+      <c r="HJ4" s="34"/>
+      <c r="HK4" s="34"/>
+      <c r="HL4" s="34"/>
+      <c r="HM4" s="34"/>
+      <c r="HN4" s="34"/>
+      <c r="HO4" s="34"/>
+      <c r="HP4" s="34"/>
+      <c r="HQ4" s="34"/>
+      <c r="HR4" s="34"/>
+      <c r="HS4" s="34"/>
+      <c r="HT4" s="34"/>
+      <c r="HU4" s="34"/>
+      <c r="HV4" s="34"/>
+      <c r="HW4" s="34"/>
+      <c r="HX4" s="34"/>
+      <c r="HY4" s="34"/>
+      <c r="HZ4" s="34"/>
+      <c r="IA4" s="34"/>
+      <c r="IB4" s="34"/>
+      <c r="IC4" s="34"/>
+      <c r="ID4" s="34"/>
+      <c r="IE4" s="34"/>
+      <c r="IF4" s="34"/>
+      <c r="IG4" s="34"/>
+      <c r="IH4" s="34"/>
+      <c r="II4" s="34"/>
+      <c r="IJ4" s="34"/>
+      <c r="IK4" s="34"/>
+      <c r="IL4" s="34"/>
+      <c r="IM4" s="34"/>
+      <c r="IN4" s="34"/>
+      <c r="IO4" s="34"/>
+      <c r="IP4" s="34"/>
+      <c r="IQ4" s="34"/>
+      <c r="IR4" s="34"/>
+      <c r="IS4" s="34"/>
+      <c r="IT4" s="34"/>
+      <c r="IU4" s="34"/>
+      <c r="IV4" s="34"/>
     </row>
     <row r="5" spans="1:256" ht="154" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
@@ -3743,257 +3743,257 @@
       <c r="E5" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="46"/>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="46"/>
-      <c r="BX5" s="46"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="46"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="46"/>
-      <c r="CE5" s="46"/>
-      <c r="CF5" s="46"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="46"/>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="46"/>
-      <c r="CK5" s="46"/>
-      <c r="CL5" s="46"/>
-      <c r="CM5" s="46"/>
-      <c r="CN5" s="46"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="46"/>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="46"/>
-      <c r="CS5" s="46"/>
-      <c r="CT5" s="46"/>
-      <c r="CU5" s="46"/>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="46"/>
-      <c r="CY5" s="46"/>
-      <c r="CZ5" s="46"/>
-      <c r="DA5" s="46"/>
-      <c r="DB5" s="46"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="46"/>
-      <c r="DE5" s="46"/>
-      <c r="DF5" s="46"/>
-      <c r="DG5" s="46"/>
-      <c r="DH5" s="46"/>
-      <c r="DI5" s="46"/>
-      <c r="DJ5" s="46"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="46"/>
-      <c r="DR5" s="46"/>
-      <c r="DS5" s="46"/>
-      <c r="DT5" s="46"/>
-      <c r="DU5" s="46"/>
-      <c r="DV5" s="46"/>
-      <c r="DW5" s="46"/>
-      <c r="DX5" s="46"/>
-      <c r="DY5" s="46"/>
-      <c r="DZ5" s="46"/>
-      <c r="EA5" s="46"/>
-      <c r="EB5" s="46"/>
-      <c r="EC5" s="46"/>
-      <c r="ED5" s="46"/>
-      <c r="EE5" s="46"/>
-      <c r="EF5" s="46"/>
-      <c r="EG5" s="46"/>
-      <c r="EH5" s="46"/>
-      <c r="EI5" s="46"/>
-      <c r="EJ5" s="46"/>
-      <c r="EK5" s="46"/>
-      <c r="EL5" s="46"/>
-      <c r="EM5" s="46"/>
-      <c r="EN5" s="46"/>
-      <c r="EO5" s="46"/>
-      <c r="EP5" s="46"/>
-      <c r="EQ5" s="46"/>
-      <c r="ER5" s="46"/>
-      <c r="ES5" s="46"/>
-      <c r="ET5" s="46"/>
-      <c r="EU5" s="46"/>
-      <c r="EV5" s="46"/>
-      <c r="EW5" s="46"/>
-      <c r="EX5" s="46"/>
-      <c r="EY5" s="46"/>
-      <c r="EZ5" s="46"/>
-      <c r="FA5" s="46"/>
-      <c r="FB5" s="46"/>
-      <c r="FC5" s="46"/>
-      <c r="FD5" s="46"/>
-      <c r="FE5" s="46"/>
-      <c r="FF5" s="46"/>
-      <c r="FG5" s="46"/>
-      <c r="FH5" s="46"/>
-      <c r="FI5" s="46"/>
-      <c r="FJ5" s="46"/>
-      <c r="FK5" s="46"/>
-      <c r="FL5" s="46"/>
-      <c r="FM5" s="46"/>
-      <c r="FN5" s="46"/>
-      <c r="FO5" s="46"/>
-      <c r="FP5" s="46"/>
-      <c r="FQ5" s="46"/>
-      <c r="FR5" s="46"/>
-      <c r="FS5" s="46"/>
-      <c r="FT5" s="46"/>
-      <c r="FU5" s="46"/>
-      <c r="FV5" s="46"/>
-      <c r="FW5" s="46"/>
-      <c r="FX5" s="46"/>
-      <c r="FY5" s="46"/>
-      <c r="FZ5" s="46"/>
-      <c r="GA5" s="46"/>
-      <c r="GB5" s="46"/>
-      <c r="GC5" s="46"/>
-      <c r="GD5" s="46"/>
-      <c r="GE5" s="46"/>
-      <c r="GF5" s="46"/>
-      <c r="GG5" s="46"/>
-      <c r="GH5" s="46"/>
-      <c r="GI5" s="46"/>
-      <c r="GJ5" s="46"/>
-      <c r="GK5" s="46"/>
-      <c r="GL5" s="46"/>
-      <c r="GM5" s="46"/>
-      <c r="GN5" s="46"/>
-      <c r="GO5" s="46"/>
-      <c r="GP5" s="46"/>
-      <c r="GQ5" s="46"/>
-      <c r="GR5" s="46"/>
-      <c r="GS5" s="46"/>
-      <c r="GT5" s="46"/>
-      <c r="GU5" s="46"/>
-      <c r="GV5" s="46"/>
-      <c r="GW5" s="46"/>
-      <c r="GX5" s="46"/>
-      <c r="GY5" s="46"/>
-      <c r="GZ5" s="46"/>
-      <c r="HA5" s="46"/>
-      <c r="HB5" s="46"/>
-      <c r="HC5" s="46"/>
-      <c r="HD5" s="46"/>
-      <c r="HE5" s="46"/>
-      <c r="HF5" s="46"/>
-      <c r="HG5" s="46"/>
-      <c r="HH5" s="46"/>
-      <c r="HI5" s="46"/>
-      <c r="HJ5" s="46"/>
-      <c r="HK5" s="46"/>
-      <c r="HL5" s="46"/>
-      <c r="HM5" s="46"/>
-      <c r="HN5" s="46"/>
-      <c r="HO5" s="46"/>
-      <c r="HP5" s="46"/>
-      <c r="HQ5" s="46"/>
-      <c r="HR5" s="46"/>
-      <c r="HS5" s="46"/>
-      <c r="HT5" s="46"/>
-      <c r="HU5" s="46"/>
-      <c r="HV5" s="46"/>
-      <c r="HW5" s="46"/>
-      <c r="HX5" s="46"/>
-      <c r="HY5" s="46"/>
-      <c r="HZ5" s="46"/>
-      <c r="IA5" s="46"/>
-      <c r="IB5" s="46"/>
-      <c r="IC5" s="46"/>
-      <c r="ID5" s="46"/>
-      <c r="IE5" s="46"/>
-      <c r="IF5" s="46"/>
-      <c r="IG5" s="46"/>
-      <c r="IH5" s="46"/>
-      <c r="II5" s="46"/>
-      <c r="IJ5" s="46"/>
-      <c r="IK5" s="46"/>
-      <c r="IL5" s="46"/>
-      <c r="IM5" s="46"/>
-      <c r="IN5" s="46"/>
-      <c r="IO5" s="46"/>
-      <c r="IP5" s="46"/>
-      <c r="IQ5" s="46"/>
-      <c r="IR5" s="46"/>
-      <c r="IS5" s="46"/>
-      <c r="IT5" s="46"/>
-      <c r="IU5" s="46"/>
-      <c r="IV5" s="46"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
+      <c r="CJ5" s="34"/>
+      <c r="CK5" s="34"/>
+      <c r="CL5" s="34"/>
+      <c r="CM5" s="34"/>
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34"/>
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="34"/>
+      <c r="CR5" s="34"/>
+      <c r="CS5" s="34"/>
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34"/>
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="34"/>
+      <c r="CX5" s="34"/>
+      <c r="CY5" s="34"/>
+      <c r="CZ5" s="34"/>
+      <c r="DA5" s="34"/>
+      <c r="DB5" s="34"/>
+      <c r="DC5" s="34"/>
+      <c r="DD5" s="34"/>
+      <c r="DE5" s="34"/>
+      <c r="DF5" s="34"/>
+      <c r="DG5" s="34"/>
+      <c r="DH5" s="34"/>
+      <c r="DI5" s="34"/>
+      <c r="DJ5" s="34"/>
+      <c r="DK5" s="34"/>
+      <c r="DL5" s="34"/>
+      <c r="DM5" s="34"/>
+      <c r="DN5" s="34"/>
+      <c r="DO5" s="34"/>
+      <c r="DP5" s="34"/>
+      <c r="DQ5" s="34"/>
+      <c r="DR5" s="34"/>
+      <c r="DS5" s="34"/>
+      <c r="DT5" s="34"/>
+      <c r="DU5" s="34"/>
+      <c r="DV5" s="34"/>
+      <c r="DW5" s="34"/>
+      <c r="DX5" s="34"/>
+      <c r="DY5" s="34"/>
+      <c r="DZ5" s="34"/>
+      <c r="EA5" s="34"/>
+      <c r="EB5" s="34"/>
+      <c r="EC5" s="34"/>
+      <c r="ED5" s="34"/>
+      <c r="EE5" s="34"/>
+      <c r="EF5" s="34"/>
+      <c r="EG5" s="34"/>
+      <c r="EH5" s="34"/>
+      <c r="EI5" s="34"/>
+      <c r="EJ5" s="34"/>
+      <c r="EK5" s="34"/>
+      <c r="EL5" s="34"/>
+      <c r="EM5" s="34"/>
+      <c r="EN5" s="34"/>
+      <c r="EO5" s="34"/>
+      <c r="EP5" s="34"/>
+      <c r="EQ5" s="34"/>
+      <c r="ER5" s="34"/>
+      <c r="ES5" s="34"/>
+      <c r="ET5" s="34"/>
+      <c r="EU5" s="34"/>
+      <c r="EV5" s="34"/>
+      <c r="EW5" s="34"/>
+      <c r="EX5" s="34"/>
+      <c r="EY5" s="34"/>
+      <c r="EZ5" s="34"/>
+      <c r="FA5" s="34"/>
+      <c r="FB5" s="34"/>
+      <c r="FC5" s="34"/>
+      <c r="FD5" s="34"/>
+      <c r="FE5" s="34"/>
+      <c r="FF5" s="34"/>
+      <c r="FG5" s="34"/>
+      <c r="FH5" s="34"/>
+      <c r="FI5" s="34"/>
+      <c r="FJ5" s="34"/>
+      <c r="FK5" s="34"/>
+      <c r="FL5" s="34"/>
+      <c r="FM5" s="34"/>
+      <c r="FN5" s="34"/>
+      <c r="FO5" s="34"/>
+      <c r="FP5" s="34"/>
+      <c r="FQ5" s="34"/>
+      <c r="FR5" s="34"/>
+      <c r="FS5" s="34"/>
+      <c r="FT5" s="34"/>
+      <c r="FU5" s="34"/>
+      <c r="FV5" s="34"/>
+      <c r="FW5" s="34"/>
+      <c r="FX5" s="34"/>
+      <c r="FY5" s="34"/>
+      <c r="FZ5" s="34"/>
+      <c r="GA5" s="34"/>
+      <c r="GB5" s="34"/>
+      <c r="GC5" s="34"/>
+      <c r="GD5" s="34"/>
+      <c r="GE5" s="34"/>
+      <c r="GF5" s="34"/>
+      <c r="GG5" s="34"/>
+      <c r="GH5" s="34"/>
+      <c r="GI5" s="34"/>
+      <c r="GJ5" s="34"/>
+      <c r="GK5" s="34"/>
+      <c r="GL5" s="34"/>
+      <c r="GM5" s="34"/>
+      <c r="GN5" s="34"/>
+      <c r="GO5" s="34"/>
+      <c r="GP5" s="34"/>
+      <c r="GQ5" s="34"/>
+      <c r="GR5" s="34"/>
+      <c r="GS5" s="34"/>
+      <c r="GT5" s="34"/>
+      <c r="GU5" s="34"/>
+      <c r="GV5" s="34"/>
+      <c r="GW5" s="34"/>
+      <c r="GX5" s="34"/>
+      <c r="GY5" s="34"/>
+      <c r="GZ5" s="34"/>
+      <c r="HA5" s="34"/>
+      <c r="HB5" s="34"/>
+      <c r="HC5" s="34"/>
+      <c r="HD5" s="34"/>
+      <c r="HE5" s="34"/>
+      <c r="HF5" s="34"/>
+      <c r="HG5" s="34"/>
+      <c r="HH5" s="34"/>
+      <c r="HI5" s="34"/>
+      <c r="HJ5" s="34"/>
+      <c r="HK5" s="34"/>
+      <c r="HL5" s="34"/>
+      <c r="HM5" s="34"/>
+      <c r="HN5" s="34"/>
+      <c r="HO5" s="34"/>
+      <c r="HP5" s="34"/>
+      <c r="HQ5" s="34"/>
+      <c r="HR5" s="34"/>
+      <c r="HS5" s="34"/>
+      <c r="HT5" s="34"/>
+      <c r="HU5" s="34"/>
+      <c r="HV5" s="34"/>
+      <c r="HW5" s="34"/>
+      <c r="HX5" s="34"/>
+      <c r="HY5" s="34"/>
+      <c r="HZ5" s="34"/>
+      <c r="IA5" s="34"/>
+      <c r="IB5" s="34"/>
+      <c r="IC5" s="34"/>
+      <c r="ID5" s="34"/>
+      <c r="IE5" s="34"/>
+      <c r="IF5" s="34"/>
+      <c r="IG5" s="34"/>
+      <c r="IH5" s="34"/>
+      <c r="II5" s="34"/>
+      <c r="IJ5" s="34"/>
+      <c r="IK5" s="34"/>
+      <c r="IL5" s="34"/>
+      <c r="IM5" s="34"/>
+      <c r="IN5" s="34"/>
+      <c r="IO5" s="34"/>
+      <c r="IP5" s="34"/>
+      <c r="IQ5" s="34"/>
+      <c r="IR5" s="34"/>
+      <c r="IS5" s="34"/>
+      <c r="IT5" s="34"/>
+      <c r="IU5" s="34"/>
+      <c r="IV5" s="34"/>
     </row>
     <row r="6" spans="1:256" ht="205" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
@@ -4006,260 +4006,260 @@
         <v>27</v>
       </c>
       <c r="D6" s="43"/>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="46"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="46"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
-      <c r="BQ6" s="46"/>
-      <c r="BR6" s="46"/>
-      <c r="BS6" s="46"/>
-      <c r="BT6" s="46"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="46"/>
-      <c r="BX6" s="46"/>
-      <c r="BY6" s="46"/>
-      <c r="BZ6" s="46"/>
-      <c r="CA6" s="46"/>
-      <c r="CB6" s="46"/>
-      <c r="CC6" s="46"/>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="46"/>
-      <c r="CF6" s="46"/>
-      <c r="CG6" s="46"/>
-      <c r="CH6" s="46"/>
-      <c r="CI6" s="46"/>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="46"/>
-      <c r="CL6" s="46"/>
-      <c r="CM6" s="46"/>
-      <c r="CN6" s="46"/>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="46"/>
-      <c r="CQ6" s="46"/>
-      <c r="CR6" s="46"/>
-      <c r="CS6" s="46"/>
-      <c r="CT6" s="46"/>
-      <c r="CU6" s="46"/>
-      <c r="CV6" s="46"/>
-      <c r="CW6" s="46"/>
-      <c r="CX6" s="46"/>
-      <c r="CY6" s="46"/>
-      <c r="CZ6" s="46"/>
-      <c r="DA6" s="46"/>
-      <c r="DB6" s="46"/>
-      <c r="DC6" s="46"/>
-      <c r="DD6" s="46"/>
-      <c r="DE6" s="46"/>
-      <c r="DF6" s="46"/>
-      <c r="DG6" s="46"/>
-      <c r="DH6" s="46"/>
-      <c r="DI6" s="46"/>
-      <c r="DJ6" s="46"/>
-      <c r="DK6" s="46"/>
-      <c r="DL6" s="46"/>
-      <c r="DM6" s="46"/>
-      <c r="DN6" s="46"/>
-      <c r="DO6" s="46"/>
-      <c r="DP6" s="46"/>
-      <c r="DQ6" s="46"/>
-      <c r="DR6" s="46"/>
-      <c r="DS6" s="46"/>
-      <c r="DT6" s="46"/>
-      <c r="DU6" s="46"/>
-      <c r="DV6" s="46"/>
-      <c r="DW6" s="46"/>
-      <c r="DX6" s="46"/>
-      <c r="DY6" s="46"/>
-      <c r="DZ6" s="46"/>
-      <c r="EA6" s="46"/>
-      <c r="EB6" s="46"/>
-      <c r="EC6" s="46"/>
-      <c r="ED6" s="46"/>
-      <c r="EE6" s="46"/>
-      <c r="EF6" s="46"/>
-      <c r="EG6" s="46"/>
-      <c r="EH6" s="46"/>
-      <c r="EI6" s="46"/>
-      <c r="EJ6" s="46"/>
-      <c r="EK6" s="46"/>
-      <c r="EL6" s="46"/>
-      <c r="EM6" s="46"/>
-      <c r="EN6" s="46"/>
-      <c r="EO6" s="46"/>
-      <c r="EP6" s="46"/>
-      <c r="EQ6" s="46"/>
-      <c r="ER6" s="46"/>
-      <c r="ES6" s="46"/>
-      <c r="ET6" s="46"/>
-      <c r="EU6" s="46"/>
-      <c r="EV6" s="46"/>
-      <c r="EW6" s="46"/>
-      <c r="EX6" s="46"/>
-      <c r="EY6" s="46"/>
-      <c r="EZ6" s="46"/>
-      <c r="FA6" s="46"/>
-      <c r="FB6" s="46"/>
-      <c r="FC6" s="46"/>
-      <c r="FD6" s="46"/>
-      <c r="FE6" s="46"/>
-      <c r="FF6" s="46"/>
-      <c r="FG6" s="46"/>
-      <c r="FH6" s="46"/>
-      <c r="FI6" s="46"/>
-      <c r="FJ6" s="46"/>
-      <c r="FK6" s="46"/>
-      <c r="FL6" s="46"/>
-      <c r="FM6" s="46"/>
-      <c r="FN6" s="46"/>
-      <c r="FO6" s="46"/>
-      <c r="FP6" s="46"/>
-      <c r="FQ6" s="46"/>
-      <c r="FR6" s="46"/>
-      <c r="FS6" s="46"/>
-      <c r="FT6" s="46"/>
-      <c r="FU6" s="46"/>
-      <c r="FV6" s="46"/>
-      <c r="FW6" s="46"/>
-      <c r="FX6" s="46"/>
-      <c r="FY6" s="46"/>
-      <c r="FZ6" s="46"/>
-      <c r="GA6" s="46"/>
-      <c r="GB6" s="46"/>
-      <c r="GC6" s="46"/>
-      <c r="GD6" s="46"/>
-      <c r="GE6" s="46"/>
-      <c r="GF6" s="46"/>
-      <c r="GG6" s="46"/>
-      <c r="GH6" s="46"/>
-      <c r="GI6" s="46"/>
-      <c r="GJ6" s="46"/>
-      <c r="GK6" s="46"/>
-      <c r="GL6" s="46"/>
-      <c r="GM6" s="46"/>
-      <c r="GN6" s="46"/>
-      <c r="GO6" s="46"/>
-      <c r="GP6" s="46"/>
-      <c r="GQ6" s="46"/>
-      <c r="GR6" s="46"/>
-      <c r="GS6" s="46"/>
-      <c r="GT6" s="46"/>
-      <c r="GU6" s="46"/>
-      <c r="GV6" s="46"/>
-      <c r="GW6" s="46"/>
-      <c r="GX6" s="46"/>
-      <c r="GY6" s="46"/>
-      <c r="GZ6" s="46"/>
-      <c r="HA6" s="46"/>
-      <c r="HB6" s="46"/>
-      <c r="HC6" s="46"/>
-      <c r="HD6" s="46"/>
-      <c r="HE6" s="46"/>
-      <c r="HF6" s="46"/>
-      <c r="HG6" s="46"/>
-      <c r="HH6" s="46"/>
-      <c r="HI6" s="46"/>
-      <c r="HJ6" s="46"/>
-      <c r="HK6" s="46"/>
-      <c r="HL6" s="46"/>
-      <c r="HM6" s="46"/>
-      <c r="HN6" s="46"/>
-      <c r="HO6" s="46"/>
-      <c r="HP6" s="46"/>
-      <c r="HQ6" s="46"/>
-      <c r="HR6" s="46"/>
-      <c r="HS6" s="46"/>
-      <c r="HT6" s="46"/>
-      <c r="HU6" s="46"/>
-      <c r="HV6" s="46"/>
-      <c r="HW6" s="46"/>
-      <c r="HX6" s="46"/>
-      <c r="HY6" s="46"/>
-      <c r="HZ6" s="46"/>
-      <c r="IA6" s="46"/>
-      <c r="IB6" s="46"/>
-      <c r="IC6" s="46"/>
-      <c r="ID6" s="46"/>
-      <c r="IE6" s="46"/>
-      <c r="IF6" s="46"/>
-      <c r="IG6" s="46"/>
-      <c r="IH6" s="46"/>
-      <c r="II6" s="46"/>
-      <c r="IJ6" s="46"/>
-      <c r="IK6" s="46"/>
-      <c r="IL6" s="46"/>
-      <c r="IM6" s="46"/>
-      <c r="IN6" s="46"/>
-      <c r="IO6" s="46"/>
-      <c r="IP6" s="46"/>
-      <c r="IQ6" s="46"/>
-      <c r="IR6" s="46"/>
-      <c r="IS6" s="46"/>
-      <c r="IT6" s="46"/>
-      <c r="IU6" s="46"/>
-      <c r="IV6" s="46"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="34"/>
+      <c r="CD6" s="34"/>
+      <c r="CE6" s="34"/>
+      <c r="CF6" s="34"/>
+      <c r="CG6" s="34"/>
+      <c r="CH6" s="34"/>
+      <c r="CI6" s="34"/>
+      <c r="CJ6" s="34"/>
+      <c r="CK6" s="34"/>
+      <c r="CL6" s="34"/>
+      <c r="CM6" s="34"/>
+      <c r="CN6" s="34"/>
+      <c r="CO6" s="34"/>
+      <c r="CP6" s="34"/>
+      <c r="CQ6" s="34"/>
+      <c r="CR6" s="34"/>
+      <c r="CS6" s="34"/>
+      <c r="CT6" s="34"/>
+      <c r="CU6" s="34"/>
+      <c r="CV6" s="34"/>
+      <c r="CW6" s="34"/>
+      <c r="CX6" s="34"/>
+      <c r="CY6" s="34"/>
+      <c r="CZ6" s="34"/>
+      <c r="DA6" s="34"/>
+      <c r="DB6" s="34"/>
+      <c r="DC6" s="34"/>
+      <c r="DD6" s="34"/>
+      <c r="DE6" s="34"/>
+      <c r="DF6" s="34"/>
+      <c r="DG6" s="34"/>
+      <c r="DH6" s="34"/>
+      <c r="DI6" s="34"/>
+      <c r="DJ6" s="34"/>
+      <c r="DK6" s="34"/>
+      <c r="DL6" s="34"/>
+      <c r="DM6" s="34"/>
+      <c r="DN6" s="34"/>
+      <c r="DO6" s="34"/>
+      <c r="DP6" s="34"/>
+      <c r="DQ6" s="34"/>
+      <c r="DR6" s="34"/>
+      <c r="DS6" s="34"/>
+      <c r="DT6" s="34"/>
+      <c r="DU6" s="34"/>
+      <c r="DV6" s="34"/>
+      <c r="DW6" s="34"/>
+      <c r="DX6" s="34"/>
+      <c r="DY6" s="34"/>
+      <c r="DZ6" s="34"/>
+      <c r="EA6" s="34"/>
+      <c r="EB6" s="34"/>
+      <c r="EC6" s="34"/>
+      <c r="ED6" s="34"/>
+      <c r="EE6" s="34"/>
+      <c r="EF6" s="34"/>
+      <c r="EG6" s="34"/>
+      <c r="EH6" s="34"/>
+      <c r="EI6" s="34"/>
+      <c r="EJ6" s="34"/>
+      <c r="EK6" s="34"/>
+      <c r="EL6" s="34"/>
+      <c r="EM6" s="34"/>
+      <c r="EN6" s="34"/>
+      <c r="EO6" s="34"/>
+      <c r="EP6" s="34"/>
+      <c r="EQ6" s="34"/>
+      <c r="ER6" s="34"/>
+      <c r="ES6" s="34"/>
+      <c r="ET6" s="34"/>
+      <c r="EU6" s="34"/>
+      <c r="EV6" s="34"/>
+      <c r="EW6" s="34"/>
+      <c r="EX6" s="34"/>
+      <c r="EY6" s="34"/>
+      <c r="EZ6" s="34"/>
+      <c r="FA6" s="34"/>
+      <c r="FB6" s="34"/>
+      <c r="FC6" s="34"/>
+      <c r="FD6" s="34"/>
+      <c r="FE6" s="34"/>
+      <c r="FF6" s="34"/>
+      <c r="FG6" s="34"/>
+      <c r="FH6" s="34"/>
+      <c r="FI6" s="34"/>
+      <c r="FJ6" s="34"/>
+      <c r="FK6" s="34"/>
+      <c r="FL6" s="34"/>
+      <c r="FM6" s="34"/>
+      <c r="FN6" s="34"/>
+      <c r="FO6" s="34"/>
+      <c r="FP6" s="34"/>
+      <c r="FQ6" s="34"/>
+      <c r="FR6" s="34"/>
+      <c r="FS6" s="34"/>
+      <c r="FT6" s="34"/>
+      <c r="FU6" s="34"/>
+      <c r="FV6" s="34"/>
+      <c r="FW6" s="34"/>
+      <c r="FX6" s="34"/>
+      <c r="FY6" s="34"/>
+      <c r="FZ6" s="34"/>
+      <c r="GA6" s="34"/>
+      <c r="GB6" s="34"/>
+      <c r="GC6" s="34"/>
+      <c r="GD6" s="34"/>
+      <c r="GE6" s="34"/>
+      <c r="GF6" s="34"/>
+      <c r="GG6" s="34"/>
+      <c r="GH6" s="34"/>
+      <c r="GI6" s="34"/>
+      <c r="GJ6" s="34"/>
+      <c r="GK6" s="34"/>
+      <c r="GL6" s="34"/>
+      <c r="GM6" s="34"/>
+      <c r="GN6" s="34"/>
+      <c r="GO6" s="34"/>
+      <c r="GP6" s="34"/>
+      <c r="GQ6" s="34"/>
+      <c r="GR6" s="34"/>
+      <c r="GS6" s="34"/>
+      <c r="GT6" s="34"/>
+      <c r="GU6" s="34"/>
+      <c r="GV6" s="34"/>
+      <c r="GW6" s="34"/>
+      <c r="GX6" s="34"/>
+      <c r="GY6" s="34"/>
+      <c r="GZ6" s="34"/>
+      <c r="HA6" s="34"/>
+      <c r="HB6" s="34"/>
+      <c r="HC6" s="34"/>
+      <c r="HD6" s="34"/>
+      <c r="HE6" s="34"/>
+      <c r="HF6" s="34"/>
+      <c r="HG6" s="34"/>
+      <c r="HH6" s="34"/>
+      <c r="HI6" s="34"/>
+      <c r="HJ6" s="34"/>
+      <c r="HK6" s="34"/>
+      <c r="HL6" s="34"/>
+      <c r="HM6" s="34"/>
+      <c r="HN6" s="34"/>
+      <c r="HO6" s="34"/>
+      <c r="HP6" s="34"/>
+      <c r="HQ6" s="34"/>
+      <c r="HR6" s="34"/>
+      <c r="HS6" s="34"/>
+      <c r="HT6" s="34"/>
+      <c r="HU6" s="34"/>
+      <c r="HV6" s="34"/>
+      <c r="HW6" s="34"/>
+      <c r="HX6" s="34"/>
+      <c r="HY6" s="34"/>
+      <c r="HZ6" s="34"/>
+      <c r="IA6" s="34"/>
+      <c r="IB6" s="34"/>
+      <c r="IC6" s="34"/>
+      <c r="ID6" s="34"/>
+      <c r="IE6" s="34"/>
+      <c r="IF6" s="34"/>
+      <c r="IG6" s="34"/>
+      <c r="IH6" s="34"/>
+      <c r="II6" s="34"/>
+      <c r="IJ6" s="34"/>
+      <c r="IK6" s="34"/>
+      <c r="IL6" s="34"/>
+      <c r="IM6" s="34"/>
+      <c r="IN6" s="34"/>
+      <c r="IO6" s="34"/>
+      <c r="IP6" s="34"/>
+      <c r="IQ6" s="34"/>
+      <c r="IR6" s="34"/>
+      <c r="IS6" s="34"/>
+      <c r="IT6" s="34"/>
+      <c r="IU6" s="34"/>
+      <c r="IV6" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4272,6 +4272,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="54" style="13" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="74.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="13" customWidth="1"/>
+    <col min="7" max="256" width="10.6640625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="361" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="230" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="145" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV11"/>
   <sheetViews>
@@ -4290,13 +4511,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -4325,7 +4546,7 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -4342,7 +4563,7 @@
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
@@ -4357,7 +4578,7 @@
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
@@ -4372,7 +4593,7 @@
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
@@ -4387,7 +4608,7 @@
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="9" t="s">
         <v>31</v>
       </c>
@@ -4402,7 +4623,7 @@
       <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
@@ -4417,7 +4638,7 @@
       <c r="C9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="8" t="s">
         <v>37</v>
       </c>
@@ -4432,7 +4653,7 @@
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="11" t="s">
         <v>40</v>
       </c>
@@ -4447,7 +4668,7 @@
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="12" t="s">
         <v>42</v>
       </c>
@@ -4456,227 +4677,6 @@
   <mergeCells count="2">
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="54" style="13" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="74.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="13" customWidth="1"/>
-    <col min="7" max="256" width="10.6640625" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="361" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="230" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="145" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4706,13 +4706,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -4741,7 +4741,7 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -4758,7 +4758,7 @@
       <c r="C4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.15">
@@ -4771,7 +4771,7 @@
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="8" t="s">
         <v>75</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="8" t="s">
         <v>76</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="C7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="11" t="s">
         <v>80</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="C8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="6" t="s">
         <v>84</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="C9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="6" t="s">
         <v>87</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="11" t="s">
         <v>91</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="C11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="8" t="s">
         <v>94</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="C12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="8" t="s">
         <v>97</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="C13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="6" t="s">
         <v>99</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="C14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="11" t="s">
         <v>102</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="C15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="11" t="s">
         <v>105</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="C16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="11" t="s">
         <v>107</v>
       </c>
@@ -4951,7 +4951,7 @@
       <c r="C17" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="11" t="s">
         <v>111</v>
       </c>
@@ -4966,7 +4966,7 @@
       <c r="C18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="33"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -4979,7 +4979,7 @@
       <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="33"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="12" t="s">
         <v>42</v>
       </c>
@@ -5017,13 +5017,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -5052,7 +5052,7 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -5069,7 +5069,7 @@
       <c r="C4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>116</v>
       </c>
@@ -5084,7 +5084,7 @@
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="20" t="s">
         <v>117</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="20" t="s">
         <v>118</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="C7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="20" t="s">
         <v>121</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="20" t="s">
         <v>124</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="C9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="20" t="s">
         <v>128</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="20" t="s">
         <v>132</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="C11" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="20" t="s">
         <v>135</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="C12" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="8" t="s">
         <v>138</v>
       </c>
@@ -5204,7 +5204,7 @@
       <c r="C13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="20" t="s">
         <v>142</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="C14" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="20" t="s">
         <v>146</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="C15" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="20" t="s">
         <v>149</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="C16" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="20" t="s">
         <v>153</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="C17" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="8" t="s">
         <v>156</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="C18" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="8" t="s">
         <v>159</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="C19" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="8" t="s">
         <v>162</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="C20" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="8" t="s">
         <v>165</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="C21" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="8" t="s">
         <v>169</v>
       </c>
@@ -5339,7 +5339,7 @@
       <c r="C22" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="8" t="s">
         <v>172</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="C23" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="8" t="s">
         <v>175</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="C24" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="8" t="s">
         <v>177</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="C25" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="21" t="s">
         <v>179</v>
       </c>
@@ -5399,7 +5399,7 @@
       <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="22" t="s">
         <v>42</v>
       </c>
@@ -5438,14 +5438,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -5475,7 +5475,7 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="45" t="s">
         <v>181</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -5493,7 +5493,7 @@
       <c r="C4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="7" t="s">
         <v>183</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="8" t="s">
         <v>184</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="8" t="s">
         <v>185</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="C7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="8" t="s">
         <v>188</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="C8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="11" t="s">
         <v>191</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="C9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="11" t="s">
         <v>192</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="12" t="s">
         <v>42</v>
       </c>
@@ -5628,13 +5628,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">

--- a/ReactNativeSDK数据传递规范v0.1.xlsx
+++ b/ReactNativeSDK数据传递规范v0.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realank/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixuesong/iHealthLibrary_ReactNative/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明文档" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
   <si>
     <t>ReactNativeSDK数据传递规范</t>
   </si>
@@ -222,65 +219,277 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>battery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartRate</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>hsdValue</t>
+  </si>
+  <si>
+    <t>measureAngleChange</t>
+  </si>
+  <si>
+    <t>chooseHand</t>
+  </si>
+  <si>
+    <t>dataID</t>
+  </si>
+  <si>
+    <t>upAirMeasureFlg</t>
+  </si>
+  <si>
+    <t>armMeasureFlg</t>
+  </si>
+  <si>
+    <t>haveAngleSensor</t>
+  </si>
+  <si>
+    <t>haveOffline</t>
+  </si>
+  <si>
+    <t>haveAngleSet</t>
+  </si>
+  <si>
+    <t>mutableUpload</t>
+  </si>
+  <si>
+    <t>selfUpdate</t>
+  </si>
+  <si>
+    <t>haveHSD</t>
+  </si>
+  <si>
+    <t>BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>battery</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartRate</t>
-  </si>
-  <si>
-    <t>irregular</t>
-  </si>
-  <si>
-    <t>hsdValue</t>
-  </si>
-  <si>
-    <t>measureAngleChange</t>
-  </si>
-  <si>
-    <t>chooseHand</t>
+    <t>Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_BATTERY_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the battery of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_LIVEDA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liveData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the start measure of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_RESULTDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the stop measure of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_OFFLINEDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlineData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the history data of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_NO_OFFLINEDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noOfflineData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the no history data of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ERROR_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callback indicating no the error for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTERY_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the power of battery for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_WAVE_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulseWave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the pulse wave for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the PI data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_STRENGTH_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulsestrength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the pulse strength data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOOD_OXYGEN_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloodoxygen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the blood oxygen data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_RATE_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartrate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the pulse rate data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dataID</t>
-  </si>
-  <si>
-    <t>upAirMeasureFlg</t>
-  </si>
-  <si>
-    <t>armMeasureFlg</t>
-  </si>
-  <si>
-    <t>haveAngleSensor</t>
-  </si>
-  <si>
-    <t>haveOffline</t>
-  </si>
-  <si>
-    <t>haveAngleSet</t>
-  </si>
-  <si>
-    <t>mutableUpload</t>
-  </si>
-  <si>
-    <t>selfUpdate</t>
-  </si>
-  <si>
-    <t>haveHSD</t>
-  </si>
-  <si>
-    <t>BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the data id for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFLINEDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlineData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the historical data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASURE_DATE_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>measureDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the measure date for Po device.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +651,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,9 +667,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,24 +1882,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
@@ -1705,12 +1920,12 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1838,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1856,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1864,7 +2079,7 @@
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>45</v>
@@ -1873,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -1881,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -1901,7 +2116,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -1909,7 +2124,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1917,7 +2132,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -1925,7 +2140,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1933,7 +2148,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -1941,7 +2156,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1949,7 +2164,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -1957,7 +2172,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -1965,7 +2180,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -1973,7 +2188,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -1981,7 +2196,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -1989,10 +2204,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2001,225 +2216,225 @@
         <v>23</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="23" t="s">
+    <row r="23" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="23" t="s">
+    <row r="24" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="23" t="s">
+    <row r="25" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="23" t="s">
+    <row r="26" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="23" t="s">
+    <row r="27" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="23" t="s">
+    <row r="28" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="23" t="s">
+    <row r="29" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="23" t="s">
+    <row r="30" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="23" t="s">
+    <row r="31" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="23" t="s">
+    <row r="32" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="23" t="s">
+    <row r="33" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="23" t="s">
+    <row r="34" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="23" t="s">
+    <row r="35" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="23" t="s">
+    <row r="36" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="23" t="s">
+    <row r="37" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="23" t="s">
+    <row r="38" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="16" t="s">
+    <row r="39" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2238,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV1"/>
+  <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2254,7 +2469,288 @@
     <col min="6" max="256" width="10.6640625" style="14" customWidth="1"/>
     <col min="257" max="16384" width="10.6640625" style="15"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/ReactNativeSDK数据传递规范v0.1.xlsx
+++ b/ReactNativeSDK数据传递规范v0.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixuesong/iHealthLibrary_ReactNative/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxu/Desktop/git_android/iHealthLibrary_ReactNative/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" activeTab="2"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明文档" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="197">
   <si>
     <t>ReactNativeSDK数据传递规范</t>
   </si>
@@ -59,437 +59,676 @@
     <t>ACTION_ERROR_BP</t>
   </si>
   <si>
+    <t>ACTION_ZOREING_BP</t>
+  </si>
+  <si>
+    <t>ACTION_ZOREOVER_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ONLINE_PRESSURE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ONLINE_PULSEWAVE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ONLINE_RESULT_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HISTORICAL_NUM_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HISTORICAL_DATA_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HISTORICAL_OVER_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_FUNCTION_INFORMATION_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_SET_UNIT_SUCCESS_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_SET_ANGLE_SUCCESS_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_INTERRUPTED_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NUM_BP</t>
+  </si>
+  <si>
+    <t>BATTERY_BP</t>
+  </si>
+  <si>
+    <t>BLOOD_PRESSURE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG_HEARTBEAT_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSEWAVE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_BLOOD_PRESSURE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_BLOOD_PRESSURE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASUREMENT_AHR_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASUREMENT_HSD_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASUREMENT_ANGLE_CHANGE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASUREMENT_HAND_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HISTORICAL_NUM_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HISTORICAL_DATA_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_IS_UPAIR_MEASURE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_IS_ARM_MEASURE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_HAVE_ANGLE_SENSOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_HAVE_OFFLINE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_HAVE_ANGLE_SETTING</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_IS_MULTI_UPLOAD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_HAVE_SELF_UPDATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION_HAVE_HSD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartRate</t>
+  </si>
+  <si>
+    <t>measureAngleChange</t>
+  </si>
+  <si>
+    <t>chooseHand</t>
+  </si>
+  <si>
+    <t>dataID</t>
+  </si>
+  <si>
+    <t>upAirMeasureFlg</t>
+  </si>
+  <si>
+    <t>armMeasureFlg</t>
+  </si>
+  <si>
+    <t>haveAngleSensor</t>
+  </si>
+  <si>
+    <t>haveOffline</t>
+  </si>
+  <si>
+    <t>haveAngleSet</t>
+  </si>
+  <si>
+    <t>mutableUpload</t>
+  </si>
+  <si>
+    <t>selfUpdate</t>
+  </si>
+  <si>
+    <t>haveHSD</t>
+  </si>
+  <si>
+    <t>BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_BATTERY_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the battery of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_LIVEDA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liveData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the start measure of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_RESULTDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the stop measure of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_OFFLINEDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlineData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the history data of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_NO_OFFLINEDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noOfflineData_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the no history data of PO3 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ERROR_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callback indicating no the error for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTERY_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the power of battery for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_WAVE_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulseWave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the pulse wave for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the PI data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_STRENGTH_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulsestrength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the pulse strength data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOOD_OXYGEN_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloodoxygen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the blood oxygen data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_RATE_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartrate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the pulse rate data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATAID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the data id for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFLINEDATA_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlineData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the historical data for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASURE_DATE_PO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>measureDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the measure date for Po device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_bp</t>
+  </si>
+  <si>
     <t>ACTION_BATTERY_BP</t>
-  </si>
-  <si>
-    <t>ACTION_ZOREING_BP</t>
-  </si>
-  <si>
-    <t>ACTION_ZOREOVER_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_ONLINE_PRESSURE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_ONLINE_PULSEWAVE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_ONLINE_RESULT_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_HISTORICAL_NUM_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_HISTORICAL_DATA_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_HISTORICAL_OVER_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_FUNCTION_INFORMATION_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_SET_UNIT_SUCCESS_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_SET_ANGLE_SUCCESS_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_INTERRUPTED_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_NUM_BP</t>
-  </si>
-  <si>
-    <t>BATTERY_BP</t>
-  </si>
-  <si>
-    <t>BLOOD_PRESSURE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLAG_HEARTBEAT_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PULSEWAVE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_BLOOD_PRESSURE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_BLOOD_PRESSURE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PULSE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEASUREMENT_AHR_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEASUREMENT_HSD_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEASUREMENT_ANGLE_CHANGE_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEASUREMENT_HAND_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATAID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HISTORICAL_NUM_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HISTORICAL_DATA_BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_IS_UPAIR_MEASURE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_IS_ARM_MEASURE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_HAVE_ANGLE_SENSOR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_HAVE_OFFLINE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_HAVE_ANGLE_SETTING</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_IS_MULTI_UPLOAD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_HAVE_SELF_UPDATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUNCTION_HAVE_HSD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery_bp</t>
+  </si>
+  <si>
+    <t>zoreing_bp</t>
+  </si>
+  <si>
+    <t>zoreover_bp</t>
+  </si>
+  <si>
+    <t>online_pulsewave_bp</t>
+  </si>
+  <si>
+    <t>online_pressure_bp</t>
+  </si>
+  <si>
+    <t>online_result_bp</t>
+  </si>
+  <si>
+    <t>offlinenum</t>
+  </si>
+  <si>
+    <t>historicaldata_bp</t>
+  </si>
+  <si>
+    <t>get_historical_over_bp</t>
+  </si>
+  <si>
+    <t>function_info_bp</t>
+  </si>
+  <si>
+    <t>set_unit_success</t>
+  </si>
+  <si>
+    <t>set_angle_success</t>
+  </si>
+  <si>
+    <t>interrupted_bp</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>heartbeat</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>arrhythmia</t>
+  </si>
+  <si>
+    <t>hsd</t>
+  </si>
+  <si>
+    <t>MEASUREMENT_STRAT_ANGLE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAngle</t>
   </si>
   <si>
     <t>value</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Key Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartRate</t>
-  </si>
-  <si>
-    <t>irregular</t>
-  </si>
-  <si>
-    <t>hsdValue</t>
-  </si>
-  <si>
-    <t>measureAngleChange</t>
-  </si>
-  <si>
-    <t>chooseHand</t>
-  </si>
-  <si>
-    <t>dataID</t>
-  </si>
-  <si>
-    <t>upAirMeasureFlg</t>
-  </si>
-  <si>
-    <t>armMeasureFlg</t>
-  </si>
-  <si>
-    <t>haveAngleSensor</t>
-  </si>
-  <si>
-    <t>haveOffline</t>
-  </si>
-  <si>
-    <t>haveAngleSet</t>
-  </si>
-  <si>
-    <t>mutableUpload</t>
-  </si>
-  <si>
-    <t>selfUpdate</t>
-  </si>
-  <si>
-    <t>haveHSD</t>
-  </si>
-  <si>
-    <t>BP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_BATTERY_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery_po</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>event</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The action value of event indicating the battery of PO3 device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_LIVEDA_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>liveData_po</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The action value of event indicating the start measure of PO3 device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_RESULTDATA_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultData_po</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The action value of event indicating the stop measure of PO3 device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_OFFLINEDATA_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>offlineData_po</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The action value of event indicating the history data of PO3 device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_NO_OFFLINEDATA_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>noOfflineData_po</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The action value of event indicating the no history data of PO3 device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_ERROR_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_po</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Callback indicating no the error for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BATTERY_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the power of battery for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PULSE_WAVE_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pulseWave</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the pulse wave for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PI_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the PI data for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PULSE_STRENGTH_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pulsestrength</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the pulse strength data for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOOD_OXYGEN_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bloodoxygen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the blood oxygen data for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PULSE_RATE_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartrate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the pulse rate data for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATAID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the data id for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFFLINEDATA_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>offlineData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the historical data for Po device.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEASURE_DATE_PO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>measureDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The key of the measure date for Po device.</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASUREMENT_DATE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ENABLE_OFFLINE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_DISENABLE_OFFLINE_BP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_IS_ENABLE_OFFLINE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ENABLE_OFFLINE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offlinestatus</t>
+  </si>
+  <si>
+    <t>offlinestatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_offline_bp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disenable_offline_bp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicates the error of BP device.</t>
+  </si>
+  <si>
+    <t>The Key of error number of Bp device.</t>
+  </si>
+  <si>
+    <t>The action value of event indicates the battery of BP device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Key of battery for BP device. </t>
+  </si>
+  <si>
+    <t>The action value of event indicates the Initialization of the Bp device has been completed.</t>
+  </si>
+  <si>
+    <t>The action value of event indicates the device's pressure in the measurement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Key of Bp device pressure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The action value of event indicates the device's pressure and pulse wave in the measurement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Key of heartbeat graphical control flag. </t>
+  </si>
+  <si>
+    <t>The Key of blood pressure pulse wave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The action value of event indicates the result of measurement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Key of high pressure for blood pressure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Key of low pressure for blood pressure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Key of blood pressure pulse. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Key of measurement is arrhythmia or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he key of hemodynamic stability diagnosis, that Determines whether the circulatory system is sufficiently at rest or not. </t>
+  </si>
+  <si>
+    <t>The key of blood pressure data id.</t>
+  </si>
+  <si>
+    <t>The action value of event indicates number of historical data for Bp device.</t>
+  </si>
+  <si>
+    <t>The key of number of historical data for Bp device.</t>
+  </si>
+  <si>
+    <t>The action value of event indicates historical data for Bp device.</t>
+  </si>
+  <si>
+    <t>The key of historical data for Bp device.</t>
+  </si>
+  <si>
+    <t>The key of measurement time.</t>
+  </si>
+  <si>
+    <t>The key of start angle for measurement.</t>
+  </si>
+  <si>
+    <t>The key of angle change during measurement.</t>
+  </si>
+  <si>
+    <t>The key of hand for measurement.</t>
+  </si>
+  <si>
+    <t>The action value of event indicates historical data update over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The action value of event indicates the function information data of bp devices. </t>
+  </si>
+  <si>
+    <t>The Key of the function information:The way to measure is up air or down air.</t>
+  </si>
+  <si>
+    <t>The Key of the function information:device is arm or wrist.</t>
+  </si>
+  <si>
+    <t>The Key of the function information:device has angle sensor or not.</t>
+  </si>
+  <si>
+    <t>The Key of the function information:device has offline-measure function or not.</t>
+  </si>
+  <si>
+    <t>The Key of the function information:device had HSD function or not.</t>
+  </si>
+  <si>
+    <t>The Key of the function information:device has angle setting function or not.</t>
+  </si>
+  <si>
+    <t>The Key of the function information:device is multi upload or single upload.</t>
+  </si>
+  <si>
+    <t>The Key of the function information:device had self update function or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The action value of event indicates setting unit successfully </t>
+  </si>
+  <si>
+    <t>The action value of event indicates setting angle successfully</t>
+  </si>
+  <si>
+    <t>The action value of event indicates enabling Off-line measurement operation is success</t>
+  </si>
+  <si>
+    <t>The action value of event indicates disenabling Off-line measurement operation is success</t>
+  </si>
+  <si>
+    <t>The action value of event indicates whether off-line measurement is on or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Key of status indicates whether off-line measurement is on or not </t>
+  </si>
+  <si>
+    <t>The action value of event indicates the Bp device is being initialized and the parameter is reset.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +736,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -525,8 +764,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.3"/>
+      <color rgb="FF629755"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +798,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -614,11 +873,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,7 +925,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,15 +943,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2051,396 +2330,653 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW39"/>
+  <dimension ref="B1:IX45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="16" customWidth="1"/>
-    <col min="2" max="3" width="18.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="54" style="16" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="74.83203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="16" customWidth="1"/>
-    <col min="8" max="257" width="10.6640625" style="16" customWidth="1"/>
-    <col min="258" max="16384" width="10.6640625" style="17"/>
+    <col min="1" max="1" width="10.6640625" style="17"/>
+    <col min="2" max="2" width="30.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="29" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="135.1640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="74.83203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="16" customWidth="1"/>
+    <col min="9" max="258" width="10.6640625" style="16" customWidth="1"/>
+    <col min="259" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="1" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="E3" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="E20" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="E22" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="E23" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="E24" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="E25" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="E26" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="E27" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="E28" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="E29" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="E31" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="E32" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="E33" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="E34" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="16" t="s">
+      <c r="D37" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="D38" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="D39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="16" t="s">
+      <c r="D40" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="D41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="D42" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="D43" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>48</v>
+      <c r="D44" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2455,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2471,281 +3007,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="B3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="C3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="25" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="C4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="C5" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="C7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="C8" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="25" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="D9" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="25" t="s">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B14" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B15" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B16" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C17" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="18" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ReactNativeSDK数据传递规范v0.1.xlsx
+++ b/ReactNativeSDK数据传递规范v0.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangxu/Desktop/git_android/iHealthLibrary_ReactNative/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jeepend/iHealthLibrary_ReactNative/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明文档" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="451">
   <si>
     <t>ReactNativeSDK数据传递规范</t>
   </si>
@@ -730,13 +730,775 @@
   <si>
     <t>The action value of event indicates the Bp device is being initialized and the parameter is reset.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ERROR_AM</t>
+  </si>
+  <si>
+    <t>error_am</t>
+  </si>
+  <si>
+    <t>ACTION_RESET_AM</t>
+  </si>
+  <si>
+    <t>reset_am</t>
+  </si>
+  <si>
+    <t>ACTION_USERID_AM</t>
+  </si>
+  <si>
+    <t>userid_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_USERID_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_userid_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_SYNC_TIME_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_sync_time_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_USERINFO_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_userinfo_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_USERINFO_AM</t>
+  </si>
+  <si>
+    <t>get_userinfo_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_ALARMNUM_AM</t>
+  </si>
+  <si>
+    <t>get_alarmnum_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_ALARMINFO_AM</t>
+  </si>
+  <si>
+    <t>get_alarminfo_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_ALARMINFO_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_alarminfo_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_DELETE_ALARM_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>delete_alarm_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_ACTIVITY_REMIND_AM</t>
+  </si>
+  <si>
+    <t>get_activity_remind_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_ACTIVITYREMIND_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_activityremind_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_SYNC_ACTIVITY_DATA_AM</t>
+  </si>
+  <si>
+    <t>sync_activity_data_am</t>
+  </si>
+  <si>
+    <t>ACTION_SYNC_SLEEP_DATA_AM</t>
+  </si>
+  <si>
+    <t>sync_sleep_data_am</t>
+  </si>
+  <si>
+    <t>ACTION_SYNC_STAGE_DATA_AM</t>
+  </si>
+  <si>
+    <t>sync_stage_data_am</t>
+  </si>
+  <si>
+    <t>ACTION_QUERY_STATE_AM</t>
+  </si>
+  <si>
+    <t>query_state_am</t>
+  </si>
+  <si>
+    <t>ACTION_SYNC_REAL_DATA_AM</t>
+  </si>
+  <si>
+    <t>sync_real_data_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_BMR_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_bmr_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_SWIMINFO_AM</t>
+  </si>
+  <si>
+    <t>get_swiminfo_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_SWIMINFO_AM</t>
+  </si>
+  <si>
+    <t>set_swiminfo_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_RANDOM_AM</t>
+  </si>
+  <si>
+    <t>get_random_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_HOUR_MODE_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_hour_mode_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_HOUR_MODE_AM</t>
+  </si>
+  <si>
+    <t>get_hour_mode_am</t>
+  </si>
+  <si>
+    <t>ACTION_SET_DEVICE_MODE_AM</t>
+  </si>
+  <si>
+    <t>set_device_mode_am</t>
+  </si>
+  <si>
+    <t>ACTION_CLOUD_BINDING_AM_SUCCESS</t>
+  </si>
+  <si>
+    <t>cloud_bind_am_success</t>
+  </si>
+  <si>
+    <t>ACTION_CLOUD_BINDING_AM_FAIL</t>
+  </si>
+  <si>
+    <t>cloud_bind_am_fail</t>
+  </si>
+  <si>
+    <t>ACTION_CLOUD_UNBINDING_AM_SUCCESS</t>
+  </si>
+  <si>
+    <t>cloud_unbind_am_success</t>
+  </si>
+  <si>
+    <t>ACTION_CLOUD_UNBINDING_AM_FAIL</t>
+  </si>
+  <si>
+    <t>cloud_unbind_am_fail</t>
+  </si>
+  <si>
+    <t>ACTION_CLOUD_SEARCH_AM</t>
+  </si>
+  <si>
+    <t>cloud_search_am</t>
+  </si>
+  <si>
+    <t>ACTION_CLOUD_SEARCH_FAIL_AM</t>
+  </si>
+  <si>
+    <t>cloud_search_fail</t>
+  </si>
+  <si>
+    <t>ACTION_SET_PICTURE_SUCCESS_AM</t>
+  </si>
+  <si>
+    <t>set_picture_success_am</t>
+  </si>
+  <si>
+    <t>ACTION_GET_PICTURE_AM</t>
+  </si>
+  <si>
+    <t>get_picture_am</t>
+  </si>
+  <si>
+    <t>ERROR_NUM_AM</t>
+  </si>
+  <si>
+    <t>ERROR_ID_ILLEGAL_ARGUMENT</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>ERROR_ID_VERSION_NOT_SUPPORT</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>ERROR_DESCRIPTION_AM</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>RESET_AM</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>USERID_AM</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>GET_USER_AGE_AM</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>GET_USER_STEP_AM</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>GET_USER_HEIGHT_AM</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>GET_USER_SEX_AM</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>GET_USER_WEIGHT_AM</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>GET_USER_UNIT_AM</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>GET_USER_TARGET1_AM</t>
+  </si>
+  <si>
+    <t>target1</t>
+  </si>
+  <si>
+    <t>GET_USER_TARGET2_AM</t>
+  </si>
+  <si>
+    <t>target2</t>
+  </si>
+  <si>
+    <t>GET_USER_TARGET3_AM</t>
+  </si>
+  <si>
+    <t>target3</t>
+  </si>
+  <si>
+    <t>GET_USER_SWIMTARGET_AM</t>
+  </si>
+  <si>
+    <t>swim_target</t>
+  </si>
+  <si>
+    <t>GET_ALARMNUM_AM</t>
+  </si>
+  <si>
+    <t>alarmclocknumber</t>
+  </si>
+  <si>
+    <t>GET_ALARMNUM_ID_AM</t>
+  </si>
+  <si>
+    <t>alarmclocknumberid</t>
+  </si>
+  <si>
+    <t>GET_ALARM_CLOCK_DETAIL</t>
+  </si>
+  <si>
+    <t>alarmclockdetail</t>
+  </si>
+  <si>
+    <t>GET_ALARM_ID_AM</t>
+  </si>
+  <si>
+    <t>alarmid</t>
+  </si>
+  <si>
+    <t>GET_ALARM_TIME_AM</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>GET_ALARM_ISREPEAT_AM</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_AM</t>
+  </si>
+  <si>
+    <t>get_alarm_week</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_SUNDAY_AM</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_MONDAY_AM</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_TUESDAY_AM</t>
+  </si>
+  <si>
+    <t>tue</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_WEDNESDAY_AM</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_THURSDAY_AM</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_FRIDAY_AM</t>
+  </si>
+  <si>
+    <t>fri</t>
+  </si>
+  <si>
+    <t>GET_ALARM_WEEK_SATURDAY_AM</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>GET_ALARM_ISON_AM</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>GET_ACTIVITY_REMIND_TIME_AM</t>
+  </si>
+  <si>
+    <t>GET_ACTIVITY_REMIND_ISON_AM</t>
+  </si>
+  <si>
+    <t>SYNC_ACTIVITY_DATA_AM</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>SYNC_ACTIVITY_DATA_TIME_AM</t>
+  </si>
+  <si>
+    <t>SYNC_ACTIVITY_DATA_STEP_AM</t>
+  </si>
+  <si>
+    <t>SYNC_ACTIVITY_DATA_STEP_LENGTH_AM</t>
+  </si>
+  <si>
+    <t>stepsize</t>
+  </si>
+  <si>
+    <t>SYNC_ACTIVITY_DATA_CALORIE_AM</t>
+  </si>
+  <si>
+    <t>calorie</t>
+  </si>
+  <si>
+    <t>SYNC_ACTIVITY_EACH_DATA_AM</t>
+  </si>
+  <si>
+    <t>activity_each_data</t>
+  </si>
+  <si>
+    <t>SYNC_SLEEP_DATA_AM</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>SYNC_SLEEP_DATA_TIME_AM</t>
+  </si>
+  <si>
+    <t>SYNC_SLEEP_DATA_LEVEL_AM</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>SYNC_SLEEP_EACH_DATA_AM</t>
+  </si>
+  <si>
+    <t>sleep_each_data</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_AM</t>
+  </si>
+  <si>
+    <t>stage_data</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_TYPE_AM</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_TYPE_WORKOUT_AM</t>
+  </si>
+  <si>
+    <t>stage_data_type_workout</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_TYPE_SLEEP_AM</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_TYPE_SWIM_AM</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_TYPE_PAGE_VIEW_SUMMARY</t>
+  </si>
+  <si>
+    <t>page_view_summary</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_STOP_TIME_AM</t>
+  </si>
+  <si>
+    <t>stoptime</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_USED_TIME_AM</t>
+  </si>
+  <si>
+    <t>usedtime</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_WORKOUT_STEP_AM</t>
+  </si>
+  <si>
+    <t>stage_data_workout_step</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_DISTANCE_AM</t>
+  </si>
+  <si>
+    <t>stage_data_distance</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_CALORIE_AM</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SLEEP_EFFICIENCY_AM</t>
+  </si>
+  <si>
+    <t>sleepefficiency</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SLEEP_IS50MIN_AM</t>
+  </si>
+  <si>
+    <t>is50min</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SWIM_STROKE_AM</t>
+  </si>
+  <si>
+    <t>swimming stroke</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SWIM_PULL_TIMES_AM</t>
+  </si>
+  <si>
+    <t>number of strokes</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SWIM_TURNS_AM</t>
+  </si>
+  <si>
+    <t>number of turns</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SWIMPOOL_LENGTH_AM</t>
+  </si>
+  <si>
+    <t>stage_data_swimpool_length</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SWIM_CUTINDIF_AM</t>
+  </si>
+  <si>
+    <t>stage_data_cutindif</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SWIM_CUTOUTDIF_AM</t>
+  </si>
+  <si>
+    <t>stage_data_cutoutdif</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_SWIM_PROCESSFLAG_AM</t>
+  </si>
+  <si>
+    <t>stage_data_processflag</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_VIEW_SUMMARY_DATE_AM</t>
+  </si>
+  <si>
+    <t>stage_data_view_summary_date</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_VIEW_SUMMARY_STEP_AM</t>
+  </si>
+  <si>
+    <t>stage_data_view_summary_step</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_VIEW_SUMMARY_DISTANCE_AM</t>
+  </si>
+  <si>
+    <t>stage_data_view_summary_distance</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_VIEW_SUMMARY_CALORIE_AM</t>
+  </si>
+  <si>
+    <t>stage_data_view_summary_calorie</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_VIEW_SUMMARY_TARGET_AM</t>
+  </si>
+  <si>
+    <t>stage_data_view_summary_target</t>
+  </si>
+  <si>
+    <t>SYNC_STAGE_DATA_VIEW_SUMMARY_SWIM_AM</t>
+  </si>
+  <si>
+    <t>stage_data_view_summary_swim</t>
+  </si>
+  <si>
+    <t>QUERY_STATE_AM</t>
+  </si>
+  <si>
+    <t>query_state</t>
+  </si>
+  <si>
+    <t>QUERY_BATTERY_AM</t>
+  </si>
+  <si>
+    <t>SYNC_REAL_STEP_AM</t>
+  </si>
+  <si>
+    <t>SYNC_REAL_CALORIE_AM</t>
+  </si>
+  <si>
+    <t>SYNC_REAL_TOTALCALORIE_AM</t>
+  </si>
+  <si>
+    <t>totalcalories</t>
+  </si>
+  <si>
+    <t>GET_SWIMLANE_LENGTH_AM</t>
+  </si>
+  <si>
+    <t>get_swimlane_length</t>
+  </si>
+  <si>
+    <t>GET_SWIM_SWITCH_AM</t>
+  </si>
+  <si>
+    <t>get_swim_switch_am</t>
+  </si>
+  <si>
+    <t>GET_SWIM_CUTOUT_HOUR_AM</t>
+  </si>
+  <si>
+    <t>get_swim_cutout_hour_am</t>
+  </si>
+  <si>
+    <t>GET_SWIM_CUTOUT_MINUTE_AM</t>
+  </si>
+  <si>
+    <t>get_swim_cutout_min_am</t>
+  </si>
+  <si>
+    <t>GET_SWIM_UNIT_AM</t>
+  </si>
+  <si>
+    <t>get_swim_unit_am</t>
+  </si>
+  <si>
+    <t>GET_RANDOM_AM</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>AM_SWITCH_OPEN</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>AM_SWITCH_CLOSE</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>AM_SWITCH_REPEAT</t>
+  </si>
+  <si>
+    <t>AM_SEITCH_NOT_REPEAT</t>
+  </si>
+  <si>
+    <t>AM_SET_MALE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AM_SET_FEMALE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>AM_SET_UNIT_METRIC</t>
+  </si>
+  <si>
+    <t>AM_SET_UNIT_IMPERIAL_STANDARD</t>
+  </si>
+  <si>
+    <t>AM_SET_12_HOUR_MODE</t>
+  </si>
+  <si>
+    <t>AM_SET_24_HOUR_MODE</t>
+  </si>
+  <si>
+    <t>AM_SET_EUROPE_12_HOUR_MODE</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AM_SET_EUROPE_24_HOUR_MODE</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>AM_SET_EXCEPT_EUROPE_12_HOUR_MODE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AM_SET_EXCEPT_EUROPE_24_HOUR_MODE</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>GET_HOUR_MODE_AM</t>
+  </si>
+  <si>
+    <t>hourtype</t>
+  </si>
+  <si>
+    <t>AM_DEVICE_MODE_SLEEP</t>
+  </si>
+  <si>
+    <t>AM_DEVICE_MODE_ACTIVITY</t>
+  </si>
+  <si>
+    <t>AM_DEVICE_MODE_FLIGHT</t>
+  </si>
+  <si>
+    <t>AM_DEVICE_MODE_DRIVING</t>
+  </si>
+  <si>
+    <t>CLOUD_SEARCH_AM</t>
+  </si>
+  <si>
+    <t>search_mac</t>
+  </si>
+  <si>
+    <t>DATAID</t>
+  </si>
+  <si>
+    <t>GET_PICTURE_AM</t>
+  </si>
+  <si>
+    <t>The action value of event indicating the error of AM device.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating reset AM device finish.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get user's ID successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set user's ID successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating send system time to AM device successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set user's information successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get user's information successfully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -777,6 +1539,31 @@
       <sz val="11.3"/>
       <color rgb="FF629755"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -889,10 +1676,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,6 +1717,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,21 +1738,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2161,24 +2966,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
@@ -2199,12 +3004,12 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2332,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:IX45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2359,618 +3164,618 @@
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="22" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="22" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="22" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="22" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="22" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="22" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="22" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="22" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="22" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="22" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="22" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="22" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="22" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="22" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="22" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="22" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="22" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="22" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="22" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="22" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2992,7 +3797,7 @@
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3007,12 +3812,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -3325,22 +4130,1671 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV1"/>
+  <dimension ref="A1:IV136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35" style="4" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="75.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="83.83203125" style="4" customWidth="1"/>
     <col min="6" max="256" width="10.6640625" style="4" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="31"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="31"/>
+    </row>
+    <row r="58" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="31"/>
+    </row>
+    <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="31"/>
+    </row>
+    <row r="61" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="31"/>
+    </row>
+    <row r="62" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="31"/>
+    </row>
+    <row r="65" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="31"/>
+    </row>
+    <row r="68" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="31"/>
+    </row>
+    <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="31"/>
+    </row>
+    <row r="73" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="31"/>
+    </row>
+    <row r="74" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="31"/>
+    </row>
+    <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="31"/>
+    </row>
+    <row r="76" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="31"/>
+    </row>
+    <row r="77" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="31"/>
+    </row>
+    <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="79" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="31"/>
+    </row>
+    <row r="80" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="31"/>
+    </row>
+    <row r="83" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="31"/>
+    </row>
+    <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="31"/>
+    </row>
+    <row r="85" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="31"/>
+    </row>
+    <row r="86" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="31"/>
+    </row>
+    <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="31"/>
+    </row>
+    <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="31"/>
+    </row>
+    <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="31"/>
+    </row>
+    <row r="90" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="31"/>
+    </row>
+    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="31"/>
+    </row>
+    <row r="92" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="31"/>
+    </row>
+    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="31"/>
+    </row>
+    <row r="94" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="31"/>
+    </row>
+    <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95" s="31"/>
+    </row>
+    <row r="96" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="31"/>
+    </row>
+    <row r="97" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="31"/>
+    </row>
+    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="31"/>
+    </row>
+    <row r="99" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="31"/>
+    </row>
+    <row r="100" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="31"/>
+    </row>
+    <row r="101" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="31"/>
+    </row>
+    <row r="102" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="31"/>
+    </row>
+    <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="31"/>
+    </row>
+    <row r="104" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="31"/>
+    </row>
+    <row r="105" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="31"/>
+    </row>
+    <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" s="31"/>
+    </row>
+    <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="31"/>
+    </row>
+    <row r="108" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" s="31"/>
+    </row>
+    <row r="109" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C109" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="31"/>
+    </row>
+    <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D110" s="31"/>
+    </row>
+    <row r="111" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111" s="31"/>
+    </row>
+    <row r="112" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D112" s="31"/>
+    </row>
+    <row r="113" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113" s="31"/>
+    </row>
+    <row r="114" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="31"/>
+    </row>
+    <row r="115" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" s="31"/>
+    </row>
+    <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D116" s="31"/>
+    </row>
+    <row r="117" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D117" s="31"/>
+    </row>
+    <row r="118" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="31"/>
+    </row>
+    <row r="119" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D119" s="31"/>
+    </row>
+    <row r="120" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="31"/>
+    </row>
+    <row r="121" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="31"/>
+    </row>
+    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D122" s="31"/>
+    </row>
+    <row r="123" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D123" s="31"/>
+    </row>
+    <row r="124" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124" s="31"/>
+    </row>
+    <row r="125" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125" s="31"/>
+    </row>
+    <row r="126" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D126" s="31"/>
+    </row>
+    <row r="127" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="31"/>
+    </row>
+    <row r="128" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="31"/>
+    </row>
+    <row r="129" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D129" s="31"/>
+    </row>
+    <row r="130" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="31"/>
+    </row>
+    <row r="131" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="31"/>
+    </row>
+    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D132" s="31"/>
+    </row>
+    <row r="133" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D133" s="31"/>
+    </row>
+    <row r="134" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="31"/>
+    </row>
+    <row r="135" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135" s="31"/>
+    </row>
+    <row r="136" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D136" s="31"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/ReactNativeSDK数据传递规范v0.1.xlsx
+++ b/ReactNativeSDK数据传递规范v0.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="549">
   <si>
     <t>ReactNativeSDK数据传递规范</t>
   </si>
@@ -882,42 +882,6 @@
     <t>set_device_mode_am</t>
   </si>
   <si>
-    <t>ACTION_CLOUD_BINDING_AM_SUCCESS</t>
-  </si>
-  <si>
-    <t>cloud_bind_am_success</t>
-  </si>
-  <si>
-    <t>ACTION_CLOUD_BINDING_AM_FAIL</t>
-  </si>
-  <si>
-    <t>cloud_bind_am_fail</t>
-  </si>
-  <si>
-    <t>ACTION_CLOUD_UNBINDING_AM_SUCCESS</t>
-  </si>
-  <si>
-    <t>cloud_unbind_am_success</t>
-  </si>
-  <si>
-    <t>ACTION_CLOUD_UNBINDING_AM_FAIL</t>
-  </si>
-  <si>
-    <t>cloud_unbind_am_fail</t>
-  </si>
-  <si>
-    <t>ACTION_CLOUD_SEARCH_AM</t>
-  </si>
-  <si>
-    <t>cloud_search_am</t>
-  </si>
-  <si>
-    <t>ACTION_CLOUD_SEARCH_FAIL_AM</t>
-  </si>
-  <si>
-    <t>cloud_search_fail</t>
-  </si>
-  <si>
     <t>ACTION_SET_PICTURE_SUCCESS_AM</t>
   </si>
   <si>
@@ -1377,24 +1341,6 @@
     <t>random</t>
   </si>
   <si>
-    <t>AM_SWITCH_OPEN</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>AM_SWITCH_CLOSE</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>AM_SWITCH_REPEAT</t>
-  </si>
-  <si>
-    <t>AM_SEITCH_NOT_REPEAT</t>
-  </si>
-  <si>
     <t>AM_SET_MALE</t>
   </si>
   <si>
@@ -1461,12 +1407,6 @@
     <t>AM_DEVICE_MODE_DRIVING</t>
   </si>
   <si>
-    <t>CLOUD_SEARCH_AM</t>
-  </si>
-  <si>
-    <t>search_mac</t>
-  </si>
-  <si>
     <t>DATAID</t>
   </si>
   <si>
@@ -1492,6 +1432,360 @@
   </si>
   <si>
     <t>The action value of event indicating get user's information successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get alarm number successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get alarm information successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set/unset alarm successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating delete alarm successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get activity remind information successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set/unset activity remind successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get activity data successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get sleep data successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get stage data successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get AM device state successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get real time data successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set user's basal metabolic rate successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get swim parameters successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set swim information successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating send random number to AM device successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set hour mode successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get hour mode successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set device mode successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating set picture successfully.</t>
+  </si>
+  <si>
+    <t>The action value of event indicating get picture successfully.</t>
+  </si>
+  <si>
+    <t>The key of error ID number of AM device.</t>
+  </si>
+  <si>
+    <t>The error ID indicates parameter error</t>
+  </si>
+  <si>
+    <t>The error ID indicates version not support error</t>
+  </si>
+  <si>
+    <t>The key of error description.</t>
+  </si>
+  <si>
+    <t>The key of the reset result.</t>
+  </si>
+  <si>
+    <t>The key of the user's ID.</t>
+  </si>
+  <si>
+    <t>The key of the user's age.</t>
+  </si>
+  <si>
+    <t>The key of the user's step length.</t>
+  </si>
+  <si>
+    <t>The key of the user's height.</t>
+  </si>
+  <si>
+    <t>The key of the user's gender.</t>
+  </si>
+  <si>
+    <t>The key of the user's weight.</t>
+  </si>
+  <si>
+    <t>The key of the unit type.</t>
+  </si>
+  <si>
+    <t>The key of the goal of max step number.</t>
+  </si>
+  <si>
+    <t>The key of the goal of middle step number.</t>
+  </si>
+  <si>
+    <t>The key of the goal of min step number.</t>
+  </si>
+  <si>
+    <t>The key of the goal of swim time</t>
+  </si>
+  <si>
+    <t>The key of the alarms' count.</t>
+  </si>
+  <si>
+    <t>The key of the alarms's id array.</t>
+  </si>
+  <si>
+    <t>The key of the whole alarm information.</t>
+  </si>
+  <si>
+    <t>The key of the alarm id.</t>
+  </si>
+  <si>
+    <t>The key of the alarm time.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm repeat or not.</t>
+  </si>
+  <si>
+    <t>The key of week repeat record.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm should play on Sunday.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm should play on Monday.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm should play on Tuesday.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm should play on Wednesday.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm should play on Thursday.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm should play on Friday.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm should play on Saturday.</t>
+  </si>
+  <si>
+    <t>The key of whether alarm is set/unset.</t>
+  </si>
+  <si>
+    <t>The key of time of activity reminder.</t>
+  </si>
+  <si>
+    <t>The key of whether activity reminder open or not.</t>
+  </si>
+  <si>
+    <t>The key of the whole activity data.</t>
+  </si>
+  <si>
+    <t>The key of the time for every 5 min activity data.</t>
+  </si>
+  <si>
+    <t>The key of the step number for every 5 min activity data.</t>
+  </si>
+  <si>
+    <t>The key of the step length for every 5 min activity data.</t>
+  </si>
+  <si>
+    <t>The key of the calorie for every 5 min activity data.</t>
+  </si>
+  <si>
+    <t>The key of the whole data for every 5 min activity data.</t>
+  </si>
+  <si>
+    <t>The key of the whole sleep data.</t>
+  </si>
+  <si>
+    <t>The key of the each 5 minute's sleep time.</t>
+  </si>
+  <si>
+    <t>The key of the each 5 minute's sleep level.</t>
+  </si>
+  <si>
+    <t>The key of the each 5 minute data array.</t>
+  </si>
+  <si>
+    <t>The key of data array of the stage data.</t>
+  </si>
+  <si>
+    <t>The key of the type of stage report.</t>
+  </si>
+  <si>
+    <t>Type of work out.</t>
+  </si>
+  <si>
+    <t>Type of sleep.</t>
+  </si>
+  <si>
+    <t>Type of swim.</t>
+  </si>
+  <si>
+    <t>Type of page view summary.</t>
+  </si>
+  <si>
+    <t>The key of stage report stop time.</t>
+  </si>
+  <si>
+    <t>The key of stage report used time</t>
+  </si>
+  <si>
+    <t>The key of the step number of work out.</t>
+  </si>
+  <si>
+    <t>The key of the distance.</t>
+  </si>
+  <si>
+    <t>The key of the calorie.</t>
+  </si>
+  <si>
+    <t>The key of sleep efficiency.</t>
+  </si>
+  <si>
+    <t>The key of whether need to extend sleep 50 minutes or not.</t>
+  </si>
+  <si>
+    <t>The key of swim stroke.</t>
+  </si>
+  <si>
+    <t>The key of swim arm pulling time.</t>
+  </si>
+  <si>
+    <t>The key of swim round number.</t>
+  </si>
+  <si>
+    <t>The key of the swimming pool length.</t>
+  </si>
+  <si>
+    <t>The key of the time of cut in swim and begin swim</t>
+  </si>
+  <si>
+    <t>The key of the time of cut out swim and end swim</t>
+  </si>
+  <si>
+    <t>The key of the swim process flag.</t>
+  </si>
+  <si>
+    <t>The key of the date of page view summary.</t>
+  </si>
+  <si>
+    <t>The key of the count that user view the step page.</t>
+  </si>
+  <si>
+    <t>The key of the count that user view the distance page.</t>
+  </si>
+  <si>
+    <t>The key of the count that user view the calorie page.</t>
+  </si>
+  <si>
+    <t>The key of the count that user view the activity target page.</t>
+  </si>
+  <si>
+    <t>The key of the count that user view the swim summary page.</t>
+  </si>
+  <si>
+    <t>The key of state information.</t>
+  </si>
+  <si>
+    <t>The key of battery level.</t>
+  </si>
+  <si>
+    <t>The key of the real step count.</t>
+  </si>
+  <si>
+    <t>The key of the real calorie</t>
+  </si>
+  <si>
+    <t>The key of the real summary calorie</t>
+  </si>
+  <si>
+    <t>The key of swimming lane length.</t>
+  </si>
+  <si>
+    <t>The key of whether the swim function is open or not.</t>
+  </si>
+  <si>
+    <t>The key of the hour part of cut out swim function.</t>
+  </si>
+  <si>
+    <t>The key of the minute part of cut out swim function.</t>
+  </si>
+  <si>
+    <t>The key of swim unit type.</t>
+  </si>
+  <si>
+    <t>The key of the random number sent to device.</t>
+  </si>
+  <si>
+    <t>The value indicates male.</t>
+  </si>
+  <si>
+    <t>The value indicates female.</t>
+  </si>
+  <si>
+    <t>The value indicates metric unit type</t>
+  </si>
+  <si>
+    <t>The value indicates imperial standard unit type</t>
+  </si>
+  <si>
+    <t>The value indicates whole world 12 hour mode</t>
+  </si>
+  <si>
+    <t>The value indicates whole world 24 hour mode</t>
+  </si>
+  <si>
+    <t>The value indicates Europe world 12 hour mode</t>
+  </si>
+  <si>
+    <t>The value indicates Europe world 24 hour mode</t>
+  </si>
+  <si>
+    <t>The value indicates except Europe world 12 hour mode</t>
+  </si>
+  <si>
+    <t>The value indicates except Europe world 24 hour mode</t>
+  </si>
+  <si>
+    <t>The key of the time mdoe.</t>
+  </si>
+  <si>
+    <t>Indicates device is sleep mode.</t>
+  </si>
+  <si>
+    <t>Indicates device is activity mode.</t>
+  </si>
+  <si>
+    <t>Indicates device is flight mode.</t>
+  </si>
+  <si>
+    <t>Indicates device is driving mode.</t>
+  </si>
+  <si>
+    <t>The key of the MD5 hash of the data.</t>
+  </si>
+  <si>
+    <t>The key of the picture index.</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1675,13 +1969,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,6 +2129,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1744,20 +2163,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2966,24 +3398,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
@@ -3004,12 +3436,12 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3156,12 +3588,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
@@ -3812,12 +4244,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -4130,1671 +4562,2081 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV136"/>
+  <dimension ref="A1:IV137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="75.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="83.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="79.1640625" style="4" customWidth="1"/>
     <col min="6" max="256" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:256" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="6"/>
+      <c r="CK1" s="6"/>
+      <c r="CL1" s="6"/>
+      <c r="CM1" s="6"/>
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="6"/>
+      <c r="CP1" s="6"/>
+      <c r="CQ1" s="6"/>
+      <c r="CR1" s="6"/>
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
+      <c r="CU1" s="6"/>
+      <c r="CV1" s="6"/>
+      <c r="CW1" s="6"/>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="6"/>
+      <c r="CZ1" s="6"/>
+      <c r="DA1" s="6"/>
+      <c r="DB1" s="6"/>
+      <c r="DC1" s="6"/>
+      <c r="DD1" s="6"/>
+      <c r="DE1" s="6"/>
+      <c r="DF1" s="6"/>
+      <c r="DG1" s="6"/>
+      <c r="DH1" s="6"/>
+      <c r="DI1" s="6"/>
+      <c r="DJ1" s="6"/>
+      <c r="DK1" s="6"/>
+      <c r="DL1" s="6"/>
+      <c r="DM1" s="6"/>
+      <c r="DN1" s="6"/>
+      <c r="DO1" s="6"/>
+      <c r="DP1" s="6"/>
+      <c r="DQ1" s="6"/>
+      <c r="DR1" s="6"/>
+      <c r="DS1" s="6"/>
+      <c r="DT1" s="6"/>
+      <c r="DU1" s="6"/>
+      <c r="DV1" s="6"/>
+      <c r="DW1" s="6"/>
+      <c r="DX1" s="6"/>
+      <c r="DY1" s="6"/>
+      <c r="DZ1" s="6"/>
+      <c r="EA1" s="6"/>
+      <c r="EB1" s="6"/>
+      <c r="EC1" s="6"/>
+      <c r="ED1" s="6"/>
+      <c r="EE1" s="6"/>
+      <c r="EF1" s="6"/>
+      <c r="EG1" s="6"/>
+      <c r="EH1" s="6"/>
+      <c r="EI1" s="6"/>
+      <c r="EJ1" s="6"/>
+      <c r="EK1" s="6"/>
+      <c r="EL1" s="6"/>
+      <c r="EM1" s="6"/>
+      <c r="EN1" s="6"/>
+      <c r="EO1" s="6"/>
+      <c r="EP1" s="6"/>
+      <c r="EQ1" s="6"/>
+      <c r="ER1" s="6"/>
+      <c r="ES1" s="6"/>
+      <c r="ET1" s="6"/>
+      <c r="EU1" s="6"/>
+      <c r="EV1" s="6"/>
+      <c r="EW1" s="6"/>
+      <c r="EX1" s="6"/>
+      <c r="EY1" s="6"/>
+      <c r="EZ1" s="6"/>
+      <c r="FA1" s="6"/>
+      <c r="FB1" s="6"/>
+      <c r="FC1" s="6"/>
+      <c r="FD1" s="6"/>
+      <c r="FE1" s="6"/>
+      <c r="FF1" s="6"/>
+      <c r="FG1" s="6"/>
+      <c r="FH1" s="6"/>
+      <c r="FI1" s="6"/>
+      <c r="FJ1" s="6"/>
+      <c r="FK1" s="6"/>
+      <c r="FL1" s="6"/>
+      <c r="FM1" s="6"/>
+      <c r="FN1" s="6"/>
+      <c r="FO1" s="6"/>
+      <c r="FP1" s="6"/>
+      <c r="FQ1" s="6"/>
+      <c r="FR1" s="6"/>
+      <c r="FS1" s="6"/>
+      <c r="FT1" s="6"/>
+      <c r="FU1" s="6"/>
+      <c r="FV1" s="6"/>
+      <c r="FW1" s="6"/>
+      <c r="FX1" s="6"/>
+      <c r="FY1" s="6"/>
+      <c r="FZ1" s="6"/>
+      <c r="GA1" s="6"/>
+      <c r="GB1" s="6"/>
+      <c r="GC1" s="6"/>
+      <c r="GD1" s="6"/>
+      <c r="GE1" s="6"/>
+      <c r="GF1" s="6"/>
+      <c r="GG1" s="6"/>
+      <c r="GH1" s="6"/>
+      <c r="GI1" s="6"/>
+      <c r="GJ1" s="6"/>
+      <c r="GK1" s="6"/>
+      <c r="GL1" s="6"/>
+      <c r="GM1" s="6"/>
+      <c r="GN1" s="6"/>
+      <c r="GO1" s="6"/>
+      <c r="GP1" s="6"/>
+      <c r="GQ1" s="6"/>
+      <c r="GR1" s="6"/>
+      <c r="GS1" s="6"/>
+      <c r="GT1" s="6"/>
+      <c r="GU1" s="6"/>
+      <c r="GV1" s="6"/>
+      <c r="GW1" s="6"/>
+      <c r="GX1" s="6"/>
+      <c r="GY1" s="6"/>
+      <c r="GZ1" s="6"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1" s="6"/>
+      <c r="HC1" s="6"/>
+      <c r="HD1" s="6"/>
+      <c r="HE1" s="6"/>
+      <c r="HF1" s="6"/>
+      <c r="HG1" s="6"/>
+      <c r="HH1" s="6"/>
+      <c r="HI1" s="6"/>
+      <c r="HJ1" s="6"/>
+      <c r="HK1" s="6"/>
+      <c r="HL1" s="6"/>
+      <c r="HM1" s="6"/>
+      <c r="HN1" s="6"/>
+      <c r="HO1" s="6"/>
+      <c r="HP1" s="6"/>
+      <c r="HQ1" s="6"/>
+      <c r="HR1" s="6"/>
+      <c r="HS1" s="6"/>
+      <c r="HT1" s="6"/>
+      <c r="HU1" s="6"/>
+      <c r="HV1" s="6"/>
+      <c r="HW1" s="6"/>
+      <c r="HX1" s="6"/>
+      <c r="HY1" s="6"/>
+      <c r="HZ1" s="6"/>
+      <c r="IA1" s="6"/>
+      <c r="IB1" s="6"/>
+      <c r="IC1" s="6"/>
+      <c r="ID1" s="6"/>
+      <c r="IE1" s="6"/>
+      <c r="IF1" s="6"/>
+      <c r="IG1" s="6"/>
+      <c r="IH1" s="6"/>
+      <c r="II1" s="6"/>
+      <c r="IJ1" s="6"/>
+      <c r="IK1" s="6"/>
+      <c r="IL1" s="6"/>
+      <c r="IM1" s="6"/>
+      <c r="IN1" s="6"/>
+      <c r="IO1" s="6"/>
+      <c r="IP1" s="6"/>
+      <c r="IQ1" s="6"/>
+      <c r="IR1" s="6"/>
+      <c r="IS1" s="6"/>
+      <c r="IT1" s="6"/>
+      <c r="IU1" s="6"/>
+      <c r="IV1" s="6"/>
+    </row>
+    <row r="2" spans="1:256" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E3" s="41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="4" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C4" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E4" s="43" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="33" t="s">
+    <row r="25" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E25" s="43" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="33" t="s">
+    <row r="26" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E26" s="43" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="33" t="s">
+    <row r="27" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E27" s="43" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="33" t="s">
+    <row r="28" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E28" s="43" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="33" t="s">
+    <row r="29" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E29" s="43" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="33" t="s">
+    <row r="30" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E30" s="43" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="31"/>
-    </row>
-    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B28" s="30" t="s">
+    <row r="31" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="43" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="43" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E114" s="43" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E115" s="43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E116" s="43" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="43" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="43" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="C127" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="31"/>
-    </row>
-    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="31"/>
-    </row>
-    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="31"/>
-    </row>
-    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="31"/>
-    </row>
-    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="31"/>
-    </row>
-    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="31"/>
-    </row>
-    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="31"/>
-    </row>
-    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="31"/>
-    </row>
-    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="31"/>
-    </row>
-    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="31"/>
-    </row>
-    <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="31"/>
-    </row>
-    <row r="53" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="31"/>
-    </row>
-    <row r="54" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="31"/>
-    </row>
-    <row r="55" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="31"/>
-    </row>
-    <row r="57" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="31"/>
-    </row>
-    <row r="58" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="31"/>
-    </row>
-    <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="31"/>
-    </row>
-    <row r="60" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="31"/>
-    </row>
-    <row r="62" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="31"/>
-    </row>
-    <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="31"/>
-    </row>
-    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="31"/>
-    </row>
-    <row r="65" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="31"/>
-    </row>
-    <row r="66" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="31"/>
-    </row>
-    <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="31"/>
-    </row>
-    <row r="68" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="31"/>
-    </row>
-    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="31"/>
-    </row>
-    <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="31"/>
-    </row>
-    <row r="71" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="31"/>
-    </row>
-    <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="31"/>
-    </row>
-    <row r="73" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="31"/>
-    </row>
-    <row r="74" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74" s="31"/>
-    </row>
-    <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="31"/>
-    </row>
-    <row r="76" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="31"/>
-    </row>
-    <row r="77" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" s="31"/>
-    </row>
-    <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="31"/>
-    </row>
-    <row r="79" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="31"/>
-    </row>
-    <row r="80" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="31"/>
-    </row>
-    <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="31"/>
-    </row>
-    <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="31"/>
-    </row>
-    <row r="83" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="31"/>
-    </row>
-    <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="31"/>
-    </row>
-    <row r="85" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="31"/>
-    </row>
-    <row r="86" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="31"/>
-    </row>
-    <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D87" s="31"/>
-    </row>
-    <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="31"/>
-    </row>
-    <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="31"/>
-    </row>
-    <row r="90" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="31"/>
-    </row>
-    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="31"/>
-    </row>
-    <row r="92" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="31"/>
-    </row>
-    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="B93" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="31"/>
-    </row>
-    <row r="94" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="B94" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="31"/>
-    </row>
-    <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="B95" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="31"/>
-    </row>
-    <row r="96" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="31"/>
-    </row>
-    <row r="97" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="B97" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="C97" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="31"/>
-    </row>
-    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="B98" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D98" s="31"/>
-    </row>
-    <row r="99" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="B99" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="C99" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="31"/>
-    </row>
-    <row r="100" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="B100" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="31"/>
-    </row>
-    <row r="101" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="B101" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="C101" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="31"/>
-    </row>
-    <row r="102" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="B102" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="31"/>
-    </row>
-    <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="B103" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D103" s="31"/>
-    </row>
-    <row r="104" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="B104" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D104" s="31"/>
-    </row>
-    <row r="105" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="B105" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105" s="31"/>
-    </row>
-    <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" s="31"/>
-    </row>
-    <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D107" s="31"/>
-    </row>
-    <row r="108" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="B108" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="C108" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108" s="31"/>
-    </row>
-    <row r="109" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D109" s="31"/>
-    </row>
-    <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="B110" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="31"/>
-    </row>
-    <row r="111" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D111" s="31"/>
-    </row>
-    <row r="112" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="31"/>
-    </row>
-    <row r="113" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113" s="31"/>
-    </row>
-    <row r="114" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="B114" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114" s="31"/>
-    </row>
-    <row r="115" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="B115" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="C115" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D115" s="31"/>
-    </row>
-    <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D116" s="31"/>
-    </row>
-    <row r="117" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="B117" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D117" s="31"/>
-    </row>
-    <row r="118" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="B118" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D118" s="31"/>
-    </row>
-    <row r="119" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="B119" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C119" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D119" s="31"/>
-    </row>
-    <row r="120" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="B120" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" s="31"/>
-    </row>
-    <row r="121" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="B121" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D121" s="31"/>
-    </row>
-    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" s="31"/>
-    </row>
-    <row r="123" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D123" s="31"/>
-    </row>
-    <row r="124" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="B124" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D124" s="31"/>
-    </row>
-    <row r="125" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="C125" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D125" s="31"/>
-    </row>
-    <row r="126" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="C126" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" s="31"/>
-    </row>
-    <row r="127" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" s="31"/>
-    </row>
-    <row r="128" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D128" s="31"/>
-    </row>
-    <row r="129" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="C129" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D129" s="31"/>
-    </row>
-    <row r="130" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="B130" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="31"/>
-    </row>
-    <row r="131" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="B131" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D131" s="31"/>
-    </row>
-    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B132" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D132" s="31"/>
-    </row>
-    <row r="133" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D133" s="31"/>
-    </row>
-    <row r="134" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D134" s="31"/>
-    </row>
-    <row r="135" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="B135" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D135" s="31"/>
-    </row>
-    <row r="136" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="B136" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D136" s="31"/>
+      <c r="D127" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127" s="47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="35"/>
+      <c r="D128" s="36"/>
+    </row>
+    <row r="129" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="35"/>
+      <c r="D129" s="36"/>
+    </row>
+    <row r="130" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="35"/>
+      <c r="D130" s="36"/>
+    </row>
+    <row r="131" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="35"/>
+      <c r="D131" s="36"/>
+    </row>
+    <row r="132" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="35"/>
+      <c r="D132" s="36"/>
+    </row>
+    <row r="133" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="35"/>
+      <c r="D133" s="36"/>
+    </row>
+    <row r="134" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="35"/>
+      <c r="D134" s="36"/>
+    </row>
+    <row r="135" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="35"/>
+      <c r="D135" s="36"/>
+    </row>
+    <row r="136" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="35"/>
+      <c r="D136" s="36"/>
+    </row>
+    <row r="137" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="35"/>
+      <c r="D137" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/ReactNativeSDK数据传递规范v0.1.xlsx
+++ b/ReactNativeSDK数据传递规范v0.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jeepend/iHealthLibrary_ReactNative/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixuesong/iHealthLibrary_ReactNative/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明文档" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="549">
   <si>
     <t>ReactNativeSDK数据传递规范</t>
   </si>
@@ -1886,7 +1886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2081,13 +2081,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2142,6 +2187,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2160,13 +2223,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2176,25 +2232,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3398,24 +3461,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
@@ -3436,12 +3499,12 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3588,12 +3651,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
@@ -4226,303 +4289,305 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV26"/>
+  <dimension ref="B1:IW27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="44" style="14" customWidth="1"/>
-    <col min="4" max="4" width="40" style="14" customWidth="1"/>
-    <col min="5" max="5" width="100" style="14" customWidth="1"/>
-    <col min="6" max="256" width="10.6640625" style="14" customWidth="1"/>
-    <col min="257" max="16384" width="10.6640625" style="15"/>
+    <col min="1" max="1" width="10.6640625" style="15"/>
+    <col min="2" max="2" width="28" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="44" style="14" customWidth="1"/>
+    <col min="5" max="5" width="66.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100" style="14" customWidth="1"/>
+    <col min="7" max="257" width="10.6640625" style="14" customWidth="1"/>
+    <col min="258" max="16384" width="10.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C3" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E3" s="52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D4" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E4" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D5" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E5" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D6" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E6" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D7" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E7" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D8" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E8" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E9" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D10" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E10" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D11" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E11" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D12" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E12" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D13" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E13" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C14" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D14" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E14" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D15" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E15" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C16" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D16" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E16" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="D17" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E17" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="2:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C18" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D18" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E18" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
+    <row r="19" spans="2:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18"/>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="18"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="E27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4564,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4836,15 +4901,15 @@
       <c r="IV1" s="6"/>
     </row>
     <row r="2" spans="1:256" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -4853,12 +4918,12 @@
       <c r="D3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="32" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -4867,12 +4932,12 @@
       <c r="D4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="32" t="s">
         <v>199</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -4881,12 +4946,12 @@
       <c r="D5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="32" t="s">
         <v>201</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -4895,12 +4960,12 @@
       <c r="D6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -4909,12 +4974,12 @@
       <c r="D7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="33" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="32" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -4923,12 +4988,12 @@
       <c r="D8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="33" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="32" t="s">
         <v>207</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4937,12 +5002,12 @@
       <c r="D9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="33" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="32" t="s">
         <v>209</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -4951,12 +5016,12 @@
       <c r="D10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="33" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="32" t="s">
         <v>211</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -4965,12 +5030,12 @@
       <c r="D11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="33" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="32" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -4979,12 +5044,12 @@
       <c r="D12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="33" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="32" t="s">
         <v>215</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -4993,12 +5058,12 @@
       <c r="D13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="33" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="32" t="s">
         <v>217</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -5007,12 +5072,12 @@
       <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="32" t="s">
         <v>219</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -5021,12 +5086,12 @@
       <c r="D15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="32" t="s">
         <v>221</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -5035,12 +5100,12 @@
       <c r="D16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="33" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="32" t="s">
         <v>223</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -5049,12 +5114,12 @@
       <c r="D17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="33" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="32" t="s">
         <v>225</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -5063,12 +5128,12 @@
       <c r="D18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="33" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="32" t="s">
         <v>227</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -5077,12 +5142,12 @@
       <c r="D19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="33" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="32" t="s">
         <v>229</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -5091,12 +5156,12 @@
       <c r="D20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="33" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="32" t="s">
         <v>231</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -5105,12 +5170,12 @@
       <c r="D21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="33" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="32" t="s">
         <v>233</v>
       </c>
       <c r="C22" s="23" t="s">
@@ -5119,12 +5184,12 @@
       <c r="D22" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="33" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="32" t="s">
         <v>235</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -5133,12 +5198,12 @@
       <c r="D23" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="33" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="32" t="s">
         <v>237</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -5147,12 +5212,12 @@
       <c r="D24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="33" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="32" t="s">
         <v>239</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -5161,12 +5226,12 @@
       <c r="D25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="33" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="32" t="s">
         <v>241</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -5175,12 +5240,12 @@
       <c r="D26" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="33" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="32" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -5189,12 +5254,12 @@
       <c r="D27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="33" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="32" t="s">
         <v>245</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -5203,12 +5268,12 @@
       <c r="D28" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="32" t="s">
         <v>247</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -5217,12 +5282,12 @@
       <c r="D29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="33" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="32" t="s">
         <v>249</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -5231,12 +5296,12 @@
       <c r="D30" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="33" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="32" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="23" t="s">
@@ -5245,12 +5310,12 @@
       <c r="D31" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="33" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="32" t="s">
         <v>252</v>
       </c>
       <c r="C32" s="23" t="s">
@@ -5259,12 +5324,12 @@
       <c r="D32" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="33" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="32" t="s">
         <v>254</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -5273,12 +5338,12 @@
       <c r="D33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="33" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="32" t="s">
         <v>256</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -5287,12 +5352,12 @@
       <c r="D34" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="33" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="32" t="s">
         <v>258</v>
       </c>
       <c r="C35" s="23" t="s">
@@ -5301,12 +5366,12 @@
       <c r="D35" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="33" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="32" t="s">
         <v>260</v>
       </c>
       <c r="C36" s="23" t="s">
@@ -5315,12 +5380,12 @@
       <c r="D36" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="33" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="32" t="s">
         <v>262</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -5329,12 +5394,12 @@
       <c r="D37" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="33" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="32" t="s">
         <v>264</v>
       </c>
       <c r="C38" s="23" t="s">
@@ -5343,12 +5408,12 @@
       <c r="D38" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="33" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="32" t="s">
         <v>266</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -5357,12 +5422,12 @@
       <c r="D39" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="32" t="s">
         <v>268</v>
       </c>
       <c r="C40" s="23" t="s">
@@ -5371,12 +5436,12 @@
       <c r="D40" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="33" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="32" t="s">
         <v>270</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -5385,12 +5450,12 @@
       <c r="D41" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="33" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="32" t="s">
         <v>272</v>
       </c>
       <c r="C42" s="23" t="s">
@@ -5399,12 +5464,12 @@
       <c r="D42" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="33" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="32" t="s">
         <v>274</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -5413,12 +5478,12 @@
       <c r="D43" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="33" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="32" t="s">
         <v>276</v>
       </c>
       <c r="C44" s="23" t="s">
@@ -5427,12 +5492,12 @@
       <c r="D44" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="33" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="32" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="23" t="s">
@@ -5441,12 +5506,12 @@
       <c r="D45" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="33" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="32" t="s">
         <v>280</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -5455,12 +5520,12 @@
       <c r="D46" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="33" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="32" t="s">
         <v>282</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -5469,12 +5534,12 @@
       <c r="D47" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="33" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="32" t="s">
         <v>284</v>
       </c>
       <c r="C48" s="23" t="s">
@@ -5483,12 +5548,12 @@
       <c r="D48" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="33" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="32" t="s">
         <v>286</v>
       </c>
       <c r="C49" s="23" t="s">
@@ -5497,12 +5562,12 @@
       <c r="D49" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="33" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="32" t="s">
         <v>288</v>
       </c>
       <c r="C50" s="23" t="s">
@@ -5511,12 +5576,12 @@
       <c r="D50" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="33" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="32" t="s">
         <v>290</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -5525,12 +5590,12 @@
       <c r="D51" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="33" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="32" t="s">
         <v>292</v>
       </c>
       <c r="C52" s="23" t="s">
@@ -5539,12 +5604,12 @@
       <c r="D52" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="33" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="32" t="s">
         <v>294</v>
       </c>
       <c r="C53" s="23" t="s">
@@ -5553,12 +5618,12 @@
       <c r="D53" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="33" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="32" t="s">
         <v>296</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -5567,12 +5632,12 @@
       <c r="D54" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="33" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="32" t="s">
         <v>298</v>
       </c>
       <c r="C55" s="23" t="s">
@@ -5581,12 +5646,12 @@
       <c r="D55" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="33" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="32" t="s">
         <v>300</v>
       </c>
       <c r="C56" s="23" t="s">
@@ -5595,12 +5660,12 @@
       <c r="D56" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="33" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="32" t="s">
         <v>302</v>
       </c>
       <c r="C57" s="23" t="s">
@@ -5609,12 +5674,12 @@
       <c r="D57" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="33" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="32" t="s">
         <v>304</v>
       </c>
       <c r="C58" s="23" t="s">
@@ -5623,12 +5688,12 @@
       <c r="D58" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="33" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="32" t="s">
         <v>306</v>
       </c>
       <c r="C59" s="23" t="s">
@@ -5637,12 +5702,12 @@
       <c r="D59" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="33" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="32" t="s">
         <v>308</v>
       </c>
       <c r="C60" s="23" t="s">
@@ -5651,12 +5716,12 @@
       <c r="D60" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="33" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="32" t="s">
         <v>310</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -5665,12 +5730,12 @@
       <c r="D61" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="33" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="32" t="s">
         <v>312</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -5679,12 +5744,12 @@
       <c r="D62" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="E62" s="33" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="32" t="s">
         <v>313</v>
       </c>
       <c r="C63" s="23" t="s">
@@ -5693,12 +5758,12 @@
       <c r="D63" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="33" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="32" t="s">
         <v>314</v>
       </c>
       <c r="C64" s="23" t="s">
@@ -5707,12 +5772,12 @@
       <c r="D64" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="33" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="32" t="s">
         <v>316</v>
       </c>
       <c r="C65" s="23" t="s">
@@ -5721,12 +5786,12 @@
       <c r="D65" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="33" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="32" t="s">
         <v>317</v>
       </c>
       <c r="C66" s="23" t="s">
@@ -5735,12 +5800,12 @@
       <c r="D66" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="33" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="32" t="s">
         <v>318</v>
       </c>
       <c r="C67" s="23" t="s">
@@ -5749,12 +5814,12 @@
       <c r="D67" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="43" t="s">
+      <c r="E67" s="33" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="32" t="s">
         <v>320</v>
       </c>
       <c r="C68" s="23" t="s">
@@ -5763,12 +5828,12 @@
       <c r="D68" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="33" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="32" t="s">
         <v>322</v>
       </c>
       <c r="C69" s="23" t="s">
@@ -5777,12 +5842,12 @@
       <c r="D69" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="33" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="32" t="s">
         <v>324</v>
       </c>
       <c r="C70" s="23" t="s">
@@ -5791,12 +5856,12 @@
       <c r="D70" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="33" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="32" t="s">
         <v>326</v>
       </c>
       <c r="C71" s="23" t="s">
@@ -5805,12 +5870,12 @@
       <c r="D71" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="33" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="32" t="s">
         <v>327</v>
       </c>
       <c r="C72" s="23" t="s">
@@ -5819,12 +5884,12 @@
       <c r="D72" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="33" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="32" t="s">
         <v>329</v>
       </c>
       <c r="C73" s="23" t="s">
@@ -5833,12 +5898,12 @@
       <c r="D73" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="33" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="32" t="s">
         <v>331</v>
       </c>
       <c r="C74" s="23" t="s">
@@ -5847,12 +5912,12 @@
       <c r="D74" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="43" t="s">
+      <c r="E74" s="33" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="32" t="s">
         <v>333</v>
       </c>
       <c r="C75" s="23" t="s">
@@ -5861,12 +5926,12 @@
       <c r="D75" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="33" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="32" t="s">
         <v>335</v>
       </c>
       <c r="C76" s="23" t="s">
@@ -5875,12 +5940,12 @@
       <c r="D76" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="33" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="32" t="s">
         <v>337</v>
       </c>
       <c r="C77" s="23" t="s">
@@ -5889,12 +5954,12 @@
       <c r="D77" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="33" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="32" t="s">
         <v>338</v>
       </c>
       <c r="C78" s="23" t="s">
@@ -5903,12 +5968,12 @@
       <c r="D78" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="33" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="32" t="s">
         <v>340</v>
       </c>
       <c r="C79" s="23" t="s">
@@ -5917,12 +5982,12 @@
       <c r="D79" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="33" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="32" t="s">
         <v>342</v>
       </c>
       <c r="C80" s="23" t="s">
@@ -5931,12 +5996,12 @@
       <c r="D80" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="E80" s="33" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="32" t="s">
         <v>344</v>
       </c>
       <c r="C81" s="23" t="s">
@@ -5945,12 +6010,12 @@
       <c r="D81" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="43" t="s">
+      <c r="E81" s="33" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="32" t="s">
         <v>346</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -5959,12 +6024,12 @@
       <c r="D82" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E82" s="33" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="32" t="s">
         <v>348</v>
       </c>
       <c r="C83" s="23" t="s">
@@ -5973,12 +6038,12 @@
       <c r="D83" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="E83" s="33" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="32" t="s">
         <v>350</v>
       </c>
       <c r="C84" s="23" t="s">
@@ -5987,12 +6052,12 @@
       <c r="D84" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="43" t="s">
+      <c r="E84" s="33" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="32" t="s">
         <v>351</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -6001,12 +6066,12 @@
       <c r="D85" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="E85" s="33" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="42" t="s">
+      <c r="B86" s="32" t="s">
         <v>353</v>
       </c>
       <c r="C86" s="23" t="s">
@@ -6015,12 +6080,12 @@
       <c r="D86" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E86" s="43" t="s">
+      <c r="E86" s="33" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="42" t="s">
+      <c r="B87" s="32" t="s">
         <v>355</v>
       </c>
       <c r="C87" s="23" t="s">
@@ -6029,12 +6094,12 @@
       <c r="D87" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="E87" s="33" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="32" t="s">
         <v>357</v>
       </c>
       <c r="C88" s="23" t="s">
@@ -6043,12 +6108,12 @@
       <c r="D88" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="43" t="s">
+      <c r="E88" s="33" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="32" t="s">
         <v>359</v>
       </c>
       <c r="C89" s="23" t="s">
@@ -6057,12 +6122,12 @@
       <c r="D89" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="33" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="32" t="s">
         <v>361</v>
       </c>
       <c r="C90" s="23" t="s">
@@ -6071,12 +6136,12 @@
       <c r="D90" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E90" s="43" t="s">
+      <c r="E90" s="33" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="32" t="s">
         <v>363</v>
       </c>
       <c r="C91" s="23" t="s">
@@ -6085,12 +6150,12 @@
       <c r="D91" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="43" t="s">
+      <c r="E91" s="33" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="32" t="s">
         <v>365</v>
       </c>
       <c r="C92" s="23" t="s">
@@ -6099,12 +6164,12 @@
       <c r="D92" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E92" s="33" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="32" t="s">
         <v>367</v>
       </c>
       <c r="C93" s="23" t="s">
@@ -6113,12 +6178,12 @@
       <c r="D93" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E93" s="43" t="s">
+      <c r="E93" s="33" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="32" t="s">
         <v>369</v>
       </c>
       <c r="C94" s="23" t="s">
@@ -6127,12 +6192,12 @@
       <c r="D94" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E94" s="43" t="s">
+      <c r="E94" s="33" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="42" t="s">
+      <c r="B95" s="32" t="s">
         <v>371</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -6141,12 +6206,12 @@
       <c r="D95" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E95" s="43" t="s">
+      <c r="E95" s="33" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="32" t="s">
         <v>373</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -6155,12 +6220,12 @@
       <c r="D96" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E96" s="43" t="s">
+      <c r="E96" s="33" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="32" t="s">
         <v>375</v>
       </c>
       <c r="C97" s="23" t="s">
@@ -6169,12 +6234,12 @@
       <c r="D97" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E97" s="43" t="s">
+      <c r="E97" s="33" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="32" t="s">
         <v>377</v>
       </c>
       <c r="C98" s="23" t="s">
@@ -6183,12 +6248,12 @@
       <c r="D98" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="43" t="s">
+      <c r="E98" s="33" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="32" t="s">
         <v>379</v>
       </c>
       <c r="C99" s="23" t="s">
@@ -6197,12 +6262,12 @@
       <c r="D99" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E99" s="43" t="s">
+      <c r="E99" s="33" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="32" t="s">
         <v>381</v>
       </c>
       <c r="C100" s="23" t="s">
@@ -6211,12 +6276,12 @@
       <c r="D100" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="43" t="s">
+      <c r="E100" s="33" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="42" t="s">
+      <c r="B101" s="32" t="s">
         <v>383</v>
       </c>
       <c r="C101" s="23" t="s">
@@ -6225,12 +6290,12 @@
       <c r="D101" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="33" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="42" t="s">
+      <c r="B102" s="32" t="s">
         <v>384</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -6239,12 +6304,12 @@
       <c r="D102" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E102" s="33" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="32" t="s">
         <v>385</v>
       </c>
       <c r="C103" s="23" t="s">
@@ -6253,12 +6318,12 @@
       <c r="D103" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E103" s="43" t="s">
+      <c r="E103" s="33" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="32" t="s">
         <v>386</v>
       </c>
       <c r="C104" s="23" t="s">
@@ -6267,12 +6332,12 @@
       <c r="D104" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="33" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="42" t="s">
+      <c r="B105" s="32" t="s">
         <v>388</v>
       </c>
       <c r="C105" s="23" t="s">
@@ -6281,12 +6346,12 @@
       <c r="D105" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="33" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="42" t="s">
+      <c r="B106" s="32" t="s">
         <v>390</v>
       </c>
       <c r="C106" s="23" t="s">
@@ -6295,12 +6360,12 @@
       <c r="D106" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E106" s="33" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="32" t="s">
         <v>392</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -6309,12 +6374,12 @@
       <c r="D107" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E107" s="33" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="32" t="s">
         <v>394</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -6323,12 +6388,12 @@
       <c r="D108" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E108" s="43" t="s">
+      <c r="E108" s="33" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="42" t="s">
+      <c r="B109" s="32" t="s">
         <v>396</v>
       </c>
       <c r="C109" s="23" t="s">
@@ -6337,12 +6402,12 @@
       <c r="D109" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E109" s="43" t="s">
+      <c r="E109" s="33" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="32" t="s">
         <v>398</v>
       </c>
       <c r="C110" s="23" t="s">
@@ -6351,12 +6416,12 @@
       <c r="D110" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="E110" s="33" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="42" t="s">
+      <c r="B111" s="32" t="s">
         <v>400</v>
       </c>
       <c r="C111" s="23" t="s">
@@ -6365,12 +6430,12 @@
       <c r="D111" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E111" s="43" t="s">
+      <c r="E111" s="33" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="32" t="s">
         <v>402</v>
       </c>
       <c r="C112" s="23" t="s">
@@ -6379,12 +6444,12 @@
       <c r="D112" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E112" s="43" t="s">
+      <c r="E112" s="33" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="32" t="s">
         <v>404</v>
       </c>
       <c r="C113" s="23" t="s">
@@ -6393,12 +6458,12 @@
       <c r="D113" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E113" s="43" t="s">
+      <c r="E113" s="33" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="42" t="s">
+      <c r="B114" s="32" t="s">
         <v>405</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -6407,12 +6472,12 @@
       <c r="D114" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E114" s="43" t="s">
+      <c r="E114" s="33" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="32" t="s">
         <v>406</v>
       </c>
       <c r="C115" s="23" t="s">
@@ -6421,12 +6486,12 @@
       <c r="D115" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E115" s="43" t="s">
+      <c r="E115" s="33" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="42" t="s">
+      <c r="B116" s="32" t="s">
         <v>407</v>
       </c>
       <c r="C116" s="23" t="s">
@@ -6435,12 +6500,12 @@
       <c r="D116" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E116" s="43" t="s">
+      <c r="E116" s="33" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="42" t="s">
+      <c r="B117" s="32" t="s">
         <v>408</v>
       </c>
       <c r="C117" s="23" t="s">
@@ -6449,12 +6514,12 @@
       <c r="D117" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E117" s="43" t="s">
+      <c r="E117" s="33" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="42" t="s">
+      <c r="B118" s="32" t="s">
         <v>410</v>
       </c>
       <c r="C118" s="23" t="s">
@@ -6463,12 +6528,12 @@
       <c r="D118" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E118" s="43" t="s">
+      <c r="E118" s="33" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="42" t="s">
+      <c r="B119" s="32" t="s">
         <v>412</v>
       </c>
       <c r="C119" s="23" t="s">
@@ -6477,12 +6542,12 @@
       <c r="D119" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E119" s="43" t="s">
+      <c r="E119" s="33" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="32" t="s">
         <v>414</v>
       </c>
       <c r="C120" s="23" t="s">
@@ -6491,12 +6556,12 @@
       <c r="D120" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E120" s="43" t="s">
+      <c r="E120" s="33" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="42" t="s">
+      <c r="B121" s="32" t="s">
         <v>416</v>
       </c>
       <c r="C121" s="23" t="s">
@@ -6505,12 +6570,12 @@
       <c r="D121" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E121" s="43" t="s">
+      <c r="E121" s="33" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="42" t="s">
+      <c r="B122" s="32" t="s">
         <v>418</v>
       </c>
       <c r="C122" s="23" t="s">
@@ -6519,12 +6584,12 @@
       <c r="D122" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E122" s="43" t="s">
+      <c r="E122" s="33" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="32" t="s">
         <v>419</v>
       </c>
       <c r="C123" s="23" t="s">
@@ -6533,12 +6598,12 @@
       <c r="D123" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E123" s="43" t="s">
+      <c r="E123" s="33" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="42" t="s">
+      <c r="B124" s="32" t="s">
         <v>420</v>
       </c>
       <c r="C124" s="23" t="s">
@@ -6547,12 +6612,12 @@
       <c r="D124" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E124" s="43" t="s">
+      <c r="E124" s="33" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="42" t="s">
+      <c r="B125" s="32" t="s">
         <v>421</v>
       </c>
       <c r="C125" s="23" t="s">
@@ -6561,12 +6626,12 @@
       <c r="D125" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E125" s="43" t="s">
+      <c r="E125" s="33" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="42" t="s">
+      <c r="B126" s="32" t="s">
         <v>422</v>
       </c>
       <c r="C126" s="23" t="s">
@@ -6575,63 +6640,63 @@
       <c r="D126" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E126" s="43" t="s">
+      <c r="E126" s="33" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="44" t="s">
+      <c r="B127" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="C127" s="45" t="s">
+      <c r="C127" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="D127" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E127" s="47" t="s">
+      <c r="D127" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127" s="37" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="35"/>
-      <c r="D128" s="36"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="29"/>
     </row>
     <row r="129" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="35"/>
-      <c r="D129" s="36"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="29"/>
     </row>
     <row r="130" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="35"/>
-      <c r="D130" s="36"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="29"/>
     </row>
     <row r="131" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="35"/>
-      <c r="D131" s="36"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="29"/>
     </row>
     <row r="132" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="35"/>
-      <c r="D132" s="36"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="29"/>
     </row>
     <row r="133" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="35"/>
-      <c r="D133" s="36"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="29"/>
     </row>
     <row r="134" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="35"/>
-      <c r="D134" s="36"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="29"/>
     </row>
     <row r="135" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="35"/>
-      <c r="D135" s="36"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="29"/>
     </row>
     <row r="136" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="35"/>
-      <c r="D136" s="36"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="29"/>
     </row>
     <row r="137" spans="3:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="35"/>
-      <c r="D137" s="36"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6648,15 +6713,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV1"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="40" style="5" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="5" customWidth="1"/>
@@ -6664,7 +6729,245 @@
     <col min="6" max="6" width="10.83203125" style="5" customWidth="1"/>
     <col min="7" max="256" width="10.6640625" style="5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/ReactNativeSDK数据传递规范v0.1.xlsx
+++ b/ReactNativeSDK数据传递规范v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="说明文档" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="633">
   <si>
     <t>ReactNativeSDK数据传递规范</t>
   </si>
@@ -1786,6 +1786,337 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>HS4S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_LIVEDATA_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>liveData_hs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the start measure of HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ONLINE_RESULT_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>online_result_hs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the stop measure of HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HISTORICAL_DATA_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>historicaldata_hs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the history data of HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_NO_HISTORICALDATA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noHistoryData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the no history data of HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ERROR_HS</t>
+  </si>
+  <si>
+    <t>error_hs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action type of callback indicating the error of HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIVEDATA_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of live data weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the data id for HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the weight result for HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HISTORDATA__HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the historical data for HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEASUREMENT_DATE_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the measure date for HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_NUM_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of error ID number of HS device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_ID_ILLEGAL_ARGUMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The error ID indicates parameter error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_DESCRIPTION_HS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HS6_SETWIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs6_setwifi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the setting wifi of HS6 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HS6_BIND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs6_bind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the bind user to the scale.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HS6_UNBIND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs6_unbind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the unbind of HS6.</t>
+  </si>
+  <si>
+    <t>ACTION_HS6_GET_TOKEN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs6_get_token</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the getting token of HS6.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_HS6_SET_UNIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs6_set_unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The action value of event indicating the set unit to the device.</t>
+  </si>
+  <si>
+    <t>ACTION_HS6_ERROR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs6_error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Callback indicating no the error for HS6 device.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETWIFI_RESULT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>setWifiResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The result of set wifi,it's a boolean.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS6_BIND_EXTRA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the return data of bind user.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIND_HS6_RESULT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bindResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the result of bind HS6 device.</t>
+  </si>
+  <si>
+    <t>HS6_MODEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the model of HS6.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS6_POSITION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the user position in the HS6.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS6_SETTED_WIFI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>settedWifi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the Whether has setted wifi.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS6_UNBIND_RESULT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unBind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the unBind data for HS6.</t>
+  </si>
+  <si>
+    <t>GET_TOKEN_RESULT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTokenResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the result of get token,it's a JSONObject.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET_UNIT_RESULT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>setUnitResult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the result of set unit.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS6_ERROR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs6_error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The key of the error code.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2132,7 +2463,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2242,6 +2573,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2251,6 +2591,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4291,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:IW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4317,16 +4672,16 @@
       <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4337,7 +4692,7 @@
       <c r="C4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="33" t="s">
@@ -4351,7 +4706,7 @@
       <c r="C5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -4365,7 +4720,7 @@
       <c r="C6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="33" t="s">
@@ -4379,7 +4734,7 @@
       <c r="C7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4393,7 +4748,7 @@
       <c r="C8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4407,7 +4762,7 @@
       <c r="C9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4421,7 +4776,7 @@
       <c r="C10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -4435,7 +4790,7 @@
       <c r="C11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="33" t="s">
@@ -4449,7 +4804,7 @@
       <c r="C12" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E12" s="33" t="s">
@@ -4463,7 +4818,7 @@
       <c r="C13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="33" t="s">
@@ -4477,7 +4832,7 @@
       <c r="C14" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -4491,7 +4846,7 @@
       <c r="C15" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -4505,7 +4860,7 @@
       <c r="C16" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="33" t="s">
@@ -4519,7 +4874,7 @@
       <c r="C17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -4533,7 +4888,7 @@
       <c r="C18" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="57" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="37" t="s">
@@ -6713,19 +7068,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV19"/>
+  <dimension ref="A1:IV17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="5" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="58.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="66.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="5" customWidth="1"/>
     <col min="7" max="256" width="10.6640625" style="5" customWidth="1"/>
   </cols>
@@ -6733,237 +7088,209 @@
     <row r="1" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
-        <v>65</v>
+        <v>549</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
       <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="51" t="s">
+    <row r="4" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E4" s="52" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="50" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="E5" s="52" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="E6" s="52" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="51" t="s">
+      <c r="E7" s="52" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="50" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32" t="s">
+      <c r="E8" s="52" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="C10" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>572</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" s="51">
+        <v>400</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="58" t="s">
+        <v>582</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
@@ -6979,22 +7306,279 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV1"/>
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="6" customWidth="1"/>
     <col min="4" max="4" width="48" style="6" customWidth="1"/>
-    <col min="5" max="5" width="171.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="65" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="256" width="10.6640625" style="6" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="50" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>595</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="50" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="50" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="50" t="s">
+        <v>606</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>607</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="50" t="s">
+        <v>618</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="50" t="s">
+        <v>624</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="50" t="s">
+        <v>627</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>631</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
